--- a/dynamic_power_analysis/code/OpenSTA_report_power/stats_final.xlsx
+++ b/dynamic_power_analysis/code/OpenSTA_report_power/stats_final.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youssef/Desktop/EDA/Dynamic_Power_Clock_Gating/dynamic_power_analysis/code/OpenSTA_report_power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB15BA7F-6500-C540-893B-3C2CFAE6AEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81304C-F58E-6543-A4EA-9C9DC918DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{890AF795-D98C-7D47-A48F-86EB7D607F33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
   <si>
     <t>module</t>
   </si>
@@ -153,12 +153,96 @@
   </si>
   <si>
     <t>total power after</t>
+  </si>
+  <si>
+    <t>all cells Internal before at 0.1</t>
+  </si>
+  <si>
+    <t>ff Internal before at 0.1</t>
+  </si>
+  <si>
+    <t>ff power before at 0.1</t>
+  </si>
+  <si>
+    <t>ff Internal before at 1.0</t>
+  </si>
+  <si>
+    <t>ff power before at 1.0</t>
+  </si>
+  <si>
+    <t>all cells Internal after at 0.1</t>
+  </si>
+  <si>
+    <t>ff Internal after at 0.1</t>
+  </si>
+  <si>
+    <t>ff power after at 0.1</t>
+  </si>
+  <si>
+    <t>ff Internal after at 0.05</t>
+  </si>
+  <si>
+    <t>ff power after at 0.05</t>
+  </si>
+  <si>
+    <t>internal component view</t>
+  </si>
+  <si>
+    <t>alpha activity view</t>
+  </si>
+  <si>
+    <t>abstract view</t>
+  </si>
+  <si>
+    <t>switching component view</t>
+  </si>
+  <si>
+    <t>all cells switching before at 0.1</t>
+  </si>
+  <si>
+    <t>ff switching before at 0.1</t>
+  </si>
+  <si>
+    <t>ff switching before at 1.0</t>
+  </si>
+  <si>
+    <t>all cells switching after at 0.1</t>
+  </si>
+  <si>
+    <t>ff switching after at 0.1</t>
+  </si>
+  <si>
+    <t>ff switching after at 0.05</t>
+  </si>
+  <si>
+    <t>all cells leakage before at 0.1</t>
+  </si>
+  <si>
+    <t>ff leakage before at 0.1</t>
+  </si>
+  <si>
+    <t>ff leakage before at 1.0</t>
+  </si>
+  <si>
+    <t>all cells leakage after at 0.1</t>
+  </si>
+  <si>
+    <t>ff leakage after at 0.1</t>
+  </si>
+  <si>
+    <t>ff leakage after at 0.05</t>
+  </si>
+  <si>
+    <t>leakage component view</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -194,12 +278,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -514,30 +600,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E9F32-DA16-8340-AAF9-07CE3C189777}">
-  <dimension ref="B4:O159"/>
+  <dimension ref="B2:R159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="I83" zoomScale="75" workbookViewId="0">
+      <selection activeCell="T104" sqref="T104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="25.1640625" customWidth="1"/>
-    <col min="4" max="4" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" customWidth="1"/>
     <col min="7" max="7" width="27.6640625" customWidth="1"/>
     <col min="8" max="8" width="26" customWidth="1"/>
     <col min="9" max="9" width="28.1640625" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" customWidth="1"/>
-    <col min="11" max="11" width="22.6640625" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="20.33203125" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="25.6640625" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
+    <col min="13" max="13" width="21.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" customWidth="1"/>
+    <col min="15" max="15" width="21.5" customWidth="1"/>
+    <col min="16" max="16" width="17.5" customWidth="1"/>
+    <col min="17" max="17" width="20.5" customWidth="1"/>
+    <col min="18" max="18" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>0</v>
@@ -1284,6 +1378,11 @@
         <v>0.43888340089342026</v>
       </c>
     </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>0</v>
@@ -1880,7 +1979,7 @@
         <v>0.447637571146627</v>
       </c>
     </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>25</v>
       </c>
@@ -1916,7 +2015,7 @@
       </c>
       <c r="M49" s="2"/>
     </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>26</v>
       </c>
@@ -1951,7 +2050,7 @@
         <v>0.65176217193098995</v>
       </c>
     </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
         <v>27</v>
       </c>
@@ -1986,7 +2085,7 @@
         <v>0.40174478895807902</v>
       </c>
     </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,357 +2120,3478 @@
         <v>0.40264232090354601</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E53" s="1"/>
       <c r="L53" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E54" s="1"/>
       <c r="L54" s="3">
         <f>AVERAGE(L33:L52)</f>
         <v>0.43888340089342026</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E55" s="1"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
       <c r="M55" s="2"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E56" s="1"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
       <c r="M56" s="2"/>
     </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E62" s="1"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="M62" s="2"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E63" s="1"/>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E68" s="1"/>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E69" s="1"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-    </row>
-    <row r="70" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E70" s="1"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="M70" s="2"/>
-    </row>
-    <row r="71" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E71" s="1"/>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E74" s="1"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="M74" s="2"/>
-    </row>
-    <row r="75" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E76" s="1"/>
-      <c r="L76" s="2"/>
-    </row>
-    <row r="77" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E77" s="1"/>
-      <c r="J77" s="2"/>
-    </row>
-    <row r="78" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E80" s="1"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B60" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>32</v>
+      </c>
+      <c r="E60" t="s">
+        <v>41</v>
+      </c>
+      <c r="F60" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" t="s">
+        <v>43</v>
+      </c>
+      <c r="H60" t="s">
+        <v>44</v>
+      </c>
+      <c r="I60" t="s">
+        <v>35</v>
+      </c>
+      <c r="J60" t="s">
+        <v>45</v>
+      </c>
+      <c r="K60" t="s">
+        <v>36</v>
+      </c>
+      <c r="L60" t="s">
+        <v>46</v>
+      </c>
+      <c r="M60" t="s">
+        <v>47</v>
+      </c>
+      <c r="N60" t="s">
+        <v>48</v>
+      </c>
+      <c r="O60" t="s">
+        <v>49</v>
+      </c>
+      <c r="P60" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>29</v>
+      </c>
+      <c r="R60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="5">
+        <v>1.75E-3</v>
+      </c>
+      <c r="D61" s="5">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="E61" s="6">
+        <v>1.0950910000000001E-3</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1.139768E-3</v>
+      </c>
+      <c r="G61" s="5">
+        <v>1.8732149999999899E-3</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2.3203199999999899E-3</v>
+      </c>
+      <c r="I61" s="5">
+        <v>3.3905519999999898E-3</v>
+      </c>
+      <c r="J61" s="5">
+        <v>1.3799999999999999E-3</v>
+      </c>
+      <c r="K61" s="5">
+        <v>1.74E-3</v>
+      </c>
+      <c r="L61" s="5">
+        <v>1.08253E-3</v>
+      </c>
+      <c r="M61" s="5">
+        <v>1.1126579999999899E-3</v>
+      </c>
+      <c r="N61" s="5">
+        <v>1.0453719999999899E-3</v>
+      </c>
+      <c r="O61" s="5">
+        <v>1.0605289999999999E-3</v>
+      </c>
+      <c r="P61" s="5">
+        <v>1.6878710000000001E-3</v>
+      </c>
+      <c r="Q61" s="5">
+        <v>1.70268099999999E-3</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0.50218401015527803</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="5">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="D62" s="5">
+        <v>5.5599999999999998E-3</v>
+      </c>
+      <c r="E62" s="6">
+        <v>3.3682199999999899E-3</v>
+      </c>
+      <c r="F62" s="5">
+        <v>3.5077699999999999E-3</v>
+      </c>
+      <c r="G62" s="5">
+        <v>5.3017799999999903E-3</v>
+      </c>
+      <c r="H62" s="5">
+        <v>6.6705899999999997E-3</v>
+      </c>
+      <c r="I62" s="5">
+        <v>8.7228199999999905E-3</v>
+      </c>
+      <c r="J62" s="5">
+        <v>4.0600000000000002E-3</v>
+      </c>
+      <c r="K62" s="5">
+        <v>4.96E-3</v>
+      </c>
+      <c r="L62" s="5">
+        <v>3.3530999999999899E-3</v>
+      </c>
+      <c r="M62" s="5">
+        <v>3.4663900000000002E-3</v>
+      </c>
+      <c r="N62" s="5">
+        <v>3.2531000000000001E-3</v>
+      </c>
+      <c r="O62" s="5">
+        <v>3.31196999999999E-3</v>
+      </c>
+      <c r="P62" s="5">
+        <v>4.8055799999999899E-3</v>
+      </c>
+      <c r="Q62" s="5">
+        <v>3.9172399999999998E-3</v>
+      </c>
+      <c r="R62" s="5">
+        <v>0.449079540790707</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="5">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="D63" s="5">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="E63" s="6">
+        <v>1.3520519999999901E-3</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1.6470269999999999E-3</v>
+      </c>
+      <c r="G63" s="5">
+        <v>3.6475700000000002E-3</v>
+      </c>
+      <c r="H63" s="5">
+        <v>6.5972199999999896E-3</v>
+      </c>
+      <c r="I63" s="5">
+        <v>2.6650192999999898E-2</v>
+      </c>
+      <c r="J63" s="5">
+        <v>1.24E-2</v>
+      </c>
+      <c r="K63" s="5">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="L63" s="5">
+        <v>1.31274499999999E-3</v>
+      </c>
+      <c r="M63" s="5">
+        <v>1.5652349999999899E-3</v>
+      </c>
+      <c r="N63" s="5">
+        <v>1.204875E-3</v>
+      </c>
+      <c r="O63" s="5">
+        <v>1.3311199999999899E-3</v>
+      </c>
+      <c r="P63" s="5">
+        <v>1.9965884999999899E-2</v>
+      </c>
+      <c r="Q63" s="5">
+        <v>6.6843079999999904E-3</v>
+      </c>
+      <c r="R63" s="5">
+        <v>0.25081649502500702</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1.49E-2</v>
+      </c>
+      <c r="D64" s="5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E64" s="6">
+        <v>4.8467299999999996E-3</v>
+      </c>
+      <c r="F64" s="5">
+        <v>6.70230999999999E-3</v>
+      </c>
+      <c r="G64" s="5">
+        <v>9.2344699999999998E-3</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2.7699769999999901E-2</v>
+      </c>
+      <c r="I64" s="5">
+        <v>4.1997459999999903E-2</v>
+      </c>
+      <c r="J64" s="5">
+        <v>1.06E-2</v>
+      </c>
+      <c r="K64" s="5">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L64" s="5">
+        <v>4.9044599999999898E-3</v>
+      </c>
+      <c r="M64" s="5">
+        <v>6.0693599999999898E-3</v>
+      </c>
+      <c r="N64" s="5">
+        <v>4.6399980000000002E-3</v>
+      </c>
+      <c r="O64" s="5">
+        <v>5.2262699999999999E-3</v>
+      </c>
+      <c r="P64" s="5">
+        <v>1.385691E-2</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>2.81405499999999E-2</v>
+      </c>
+      <c r="R64" s="5">
+        <v>0.67005361752829795</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1.46E-2</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="E65" s="6">
+        <v>3.0551200000000001E-3</v>
+      </c>
+      <c r="F65" s="5">
+        <v>3.5845999999999999E-3</v>
+      </c>
+      <c r="G65" s="5">
+        <v>6.3090999999999902E-3</v>
+      </c>
+      <c r="H65" s="5">
+        <v>1.15961E-2</v>
+      </c>
+      <c r="I65" s="5">
+        <v>3.4111499999999899E-2</v>
+      </c>
+      <c r="J65" s="5">
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="K65" s="5">
+        <v>1.37E-2</v>
+      </c>
+      <c r="L65" s="5">
+        <v>3.78963E-3</v>
+      </c>
+      <c r="M65" s="5">
+        <v>4.2467599999999901E-3</v>
+      </c>
+      <c r="N65" s="5">
+        <v>3.2409499999999998E-3</v>
+      </c>
+      <c r="O65" s="5">
+        <v>3.4693899999999902E-3</v>
+      </c>
+      <c r="P65" s="5">
+        <v>1.2922629999999999E-2</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>2.1188869999999901E-2</v>
+      </c>
+      <c r="R65" s="5">
+        <v>0.621165003004851</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="5">
+        <v>3.9699999999999999E-2</v>
+      </c>
+      <c r="D66" s="5">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="E66" s="6">
+        <v>3.5804099999999998E-2</v>
+      </c>
+      <c r="F66" s="5">
+        <v>3.6812699999999997E-2</v>
+      </c>
+      <c r="G66" s="5">
+        <v>5.5313119999999903E-2</v>
+      </c>
+      <c r="H66" s="5">
+        <v>6.6028900000000001E-2</v>
+      </c>
+      <c r="I66" s="5">
+        <v>7.2016200000000002E-2</v>
+      </c>
+      <c r="J66" s="5">
+        <v>4.02E-2</v>
+      </c>
+      <c r="K66" s="5">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="L66" s="5">
+        <v>3.5651099999999998E-2</v>
+      </c>
+      <c r="M66" s="5">
+        <v>3.64499E-2</v>
+      </c>
+      <c r="N66" s="5">
+        <v>3.4672000000000001E-2</v>
+      </c>
+      <c r="O66" s="5">
+        <v>3.5047999999999899E-2</v>
+      </c>
+      <c r="P66" s="5">
+        <v>4.2298099999999901E-2</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>2.9718100000000001E-2</v>
+      </c>
+      <c r="R66" s="5">
+        <v>0.41265854071722702</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67" s="5">
+        <v>3.3700000000000001E-4</v>
+      </c>
+      <c r="D67" s="5">
+        <v>4.84E-4</v>
+      </c>
+      <c r="E67" s="6">
+        <v>3.1995000013646901E-4</v>
+      </c>
+      <c r="F67" s="5">
+        <v>4.5404026164999899E-4</v>
+      </c>
+      <c r="G67" s="5">
+        <v>2.7413000013646899E-3</v>
+      </c>
+      <c r="H67" s="5">
+        <v>4.0824002631599902E-3</v>
+      </c>
+      <c r="I67" s="5">
+        <v>4.1123600015099898E-3</v>
+      </c>
+      <c r="J67" s="5">
+        <v>3.7399999999999998E-4</v>
+      </c>
+      <c r="K67" s="5">
+        <v>5.2499999999999997E-4</v>
+      </c>
+      <c r="L67" s="5">
+        <v>3.1928000013617901E-4</v>
+      </c>
+      <c r="M67" s="5">
+        <v>4.45840261649999E-4</v>
+      </c>
+      <c r="N67" s="5">
+        <v>1.85120000068089E-4</v>
+      </c>
+      <c r="O67" s="5">
+        <v>2.4839026163999903E-4</v>
+      </c>
+      <c r="P67" s="5">
+        <v>3.2754999998999999E-4</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>3.7848100015199899E-3</v>
+      </c>
+      <c r="R67" s="5">
+        <v>0.92034987212458796</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" s="5">
+        <v>4.1099999999999999E-3</v>
+      </c>
+      <c r="D68" s="5">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="E68" s="6">
+        <v>3.55149999999999E-3</v>
+      </c>
+      <c r="F68" s="5">
+        <v>3.7652999999999901E-3</v>
+      </c>
+      <c r="G68" s="5">
+        <v>6.3128000000000004E-3</v>
+      </c>
+      <c r="H68" s="5">
+        <v>8.4554000000000001E-3</v>
+      </c>
+      <c r="I68" s="5">
+        <v>9.5400999999999993E-3</v>
+      </c>
+      <c r="J68" s="5">
+        <v>5.3400000000000001E-3</v>
+      </c>
+      <c r="K68" s="5">
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="L68" s="5">
+        <v>3.4730999999999898E-3</v>
+      </c>
+      <c r="M68" s="5">
+        <v>3.5715999999999899E-3</v>
+      </c>
+      <c r="N68" s="5">
+        <v>3.3601999999999998E-3</v>
+      </c>
+      <c r="O68" s="5">
+        <v>3.4080999999999998E-3</v>
+      </c>
+      <c r="P68" s="5">
+        <v>5.8964999999999998E-3</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>3.6435999999999899E-3</v>
+      </c>
+      <c r="R68" s="5">
+        <v>0.381924717770253</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" s="5">
+        <v>7.18E-4</v>
+      </c>
+      <c r="D69" s="5">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E69" s="6">
+        <v>3.0597000000000003E-4</v>
+      </c>
+      <c r="F69" s="5">
+        <v>3.4717999999999902E-4</v>
+      </c>
+      <c r="G69" s="5">
+        <v>5.0664999999999998E-4</v>
+      </c>
+      <c r="H69" s="5">
+        <v>9.1896999999999899E-4</v>
+      </c>
+      <c r="I69" s="5">
+        <v>1.67179E-3</v>
+      </c>
+      <c r="J69" s="5">
+        <v>7.7399999999999995E-4</v>
+      </c>
+      <c r="K69" s="5">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L69" s="5">
+        <v>3.0881000000000002E-4</v>
+      </c>
+      <c r="M69" s="5">
+        <v>3.5296999999999998E-4</v>
+      </c>
+      <c r="N69" s="5">
+        <v>2.9617000000000001E-4</v>
+      </c>
+      <c r="O69" s="5">
+        <v>3.1824000000000002E-4</v>
+      </c>
+      <c r="P69" s="5">
+        <v>1.18527E-3</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>4.8651999999999902E-4</v>
+      </c>
+      <c r="R69" s="5">
+        <v>0.29101741247405399</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" s="5">
+        <v>8.1200000000000005E-3</v>
+      </c>
+      <c r="D70" s="5">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E70" s="6">
+        <v>7.3130599999999902E-3</v>
+      </c>
+      <c r="F70" s="5">
+        <v>7.5589999999999902E-3</v>
+      </c>
+      <c r="G70" s="5">
+        <v>1.16537699999999E-2</v>
+      </c>
+      <c r="H70" s="5">
+        <v>1.407634E-2</v>
+      </c>
+      <c r="I70" s="5">
+        <v>1.531734E-2</v>
+      </c>
+      <c r="J70" s="5">
+        <v>9.5499999999999995E-3</v>
+      </c>
+      <c r="K70" s="5">
+        <v>1.09E-2</v>
+      </c>
+      <c r="L70" s="5">
+        <v>7.3392599999999898E-3</v>
+      </c>
+      <c r="M70" s="5">
+        <v>7.4665199999999904E-3</v>
+      </c>
+      <c r="N70" s="5">
+        <v>7.1142199999999897E-3</v>
+      </c>
+      <c r="O70" s="5">
+        <v>7.1781899999999897E-3</v>
+      </c>
+      <c r="P70" s="5">
+        <v>1.06116699999999E-2</v>
+      </c>
+      <c r="Q70" s="5">
+        <v>4.7056700000000003E-3</v>
+      </c>
+      <c r="R70" s="5">
+        <v>0.307211957167497</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="D71" s="5">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E71" s="6">
+        <v>0.1218076</v>
+      </c>
+      <c r="F71" s="5">
+        <v>0.12532929999999901</v>
+      </c>
+      <c r="G71" s="5">
+        <v>0.18412394000000001</v>
+      </c>
+      <c r="H71" s="5">
+        <v>0.219931299999999</v>
+      </c>
+      <c r="I71" s="5">
+        <v>0.24060200000000001</v>
+      </c>
+      <c r="J71" s="5">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="K71" s="5">
+        <v>0.156</v>
+      </c>
+      <c r="L71" s="5">
+        <v>0.120634299999999</v>
+      </c>
+      <c r="M71" s="5">
+        <v>0.12119920000000001</v>
+      </c>
+      <c r="N71" s="5">
+        <v>0.117682199999999</v>
+      </c>
+      <c r="O71" s="5">
+        <v>0.11804379999999901</v>
+      </c>
+      <c r="P71" s="5">
+        <v>0.152844599999999</v>
+      </c>
+      <c r="Q71" s="5">
+        <v>8.7757399999999999E-2</v>
+      </c>
+      <c r="R71" s="5">
+        <v>0.36474094147180802</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" s="5">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="D72" s="5">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E72" s="6">
+        <v>4.2743599999999903E-2</v>
+      </c>
+      <c r="F72" s="5">
+        <v>4.4913399999999999E-2</v>
+      </c>
+      <c r="G72" s="5">
+        <v>7.5450859999999995E-2</v>
+      </c>
+      <c r="H72" s="5">
+        <v>9.6929999999999905E-2</v>
+      </c>
+      <c r="I72" s="5">
+        <v>0.10901659999999901</v>
+      </c>
+      <c r="J72" s="5">
+        <v>5.0500000000000003E-2</v>
+      </c>
+      <c r="K72" s="5">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="L72" s="5">
+        <v>4.22678999999999E-2</v>
+      </c>
+      <c r="M72" s="5">
+        <v>4.3110000000000002E-2</v>
+      </c>
+      <c r="N72" s="5">
+        <v>4.0668399999999903E-2</v>
+      </c>
+      <c r="O72" s="5">
+        <v>4.1162199999999899E-2</v>
+      </c>
+      <c r="P72" s="5">
+        <v>5.5752199999999898E-2</v>
+      </c>
+      <c r="Q72" s="5">
+        <v>5.3264399999999899E-2</v>
+      </c>
+      <c r="R72" s="5">
+        <v>0.48858981109298899</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="5">
+        <v>3.6099999999999999E-4</v>
+      </c>
+      <c r="D73" s="5">
+        <v>4.26E-4</v>
+      </c>
+      <c r="E73" s="6">
+        <v>3.1060000000000001E-4</v>
+      </c>
+      <c r="F73" s="5">
+        <v>3.2938999999999999E-4</v>
+      </c>
+      <c r="G73" s="5">
+        <v>5.0525999999999902E-4</v>
+      </c>
+      <c r="H73" s="5">
+        <v>6.9052000000000002E-4</v>
+      </c>
+      <c r="I73" s="5">
+        <v>7.8713000000000003E-4</v>
+      </c>
+      <c r="J73" s="5">
+        <v>3.7100000000000002E-4</v>
+      </c>
+      <c r="K73" s="5">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="L73" s="5">
+        <v>3.06809999999999E-4</v>
+      </c>
+      <c r="M73" s="5">
+        <v>3.1981000000000002E-4</v>
+      </c>
+      <c r="N73" s="5">
+        <v>2.9771000000000002E-4</v>
+      </c>
+      <c r="O73" s="5">
+        <v>3.0441000000000002E-4</v>
+      </c>
+      <c r="P73" s="5">
+        <v>4.31599999999999E-4</v>
+      </c>
+      <c r="Q73" s="5">
+        <v>3.5553000000000001E-4</v>
+      </c>
+      <c r="R73" s="5">
+        <v>0.45167888404710699</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" s="5">
+        <v>2.75E-2</v>
+      </c>
+      <c r="D74" s="5">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1.1622099999999899E-2</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1.24532899999999E-2</v>
+      </c>
+      <c r="G74" s="5">
+        <v>1.8393550000000002E-2</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2.67285499999999E-2</v>
+      </c>
+      <c r="I74" s="5">
+        <v>5.7275259999999897E-2</v>
+      </c>
+      <c r="J74" s="5">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="K74" s="5">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="L74" s="5">
+        <v>1.1702769999999999E-2</v>
+      </c>
+      <c r="M74" s="5">
+        <v>1.233252E-2</v>
+      </c>
+      <c r="N74" s="5">
+        <v>1.13068699999999E-2</v>
+      </c>
+      <c r="O74" s="5">
+        <v>1.162319E-2</v>
+      </c>
+      <c r="P74" s="5">
+        <v>3.7190670000000002E-2</v>
+      </c>
+      <c r="Q74" s="5">
+        <v>2.0084589999999899E-2</v>
+      </c>
+      <c r="R74" s="5">
+        <v>0.35066781015048998</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="5">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="D75" s="5">
+        <v>5.96E-2</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1.33003295999999E-2</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1.4597239999999999E-2</v>
+      </c>
+      <c r="G75" s="5">
+        <v>2.5801482999999899E-2</v>
+      </c>
+      <c r="H75" s="5">
+        <v>3.8125039999999999E-2</v>
+      </c>
+      <c r="I75" s="5">
+        <v>8.3127800000000002E-2</v>
+      </c>
+      <c r="J75" s="5">
+        <v>5.8099999999999999E-2</v>
+      </c>
+      <c r="K75" s="5">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="L75" s="5">
+        <v>1.62027119999999E-2</v>
+      </c>
+      <c r="M75" s="5">
+        <v>1.9450149999999899E-2</v>
+      </c>
+      <c r="N75" s="5">
+        <v>1.407553363E-2</v>
+      </c>
+      <c r="O75" s="5">
+        <v>1.571898E-2</v>
+      </c>
+      <c r="P75" s="5">
+        <v>8.8368829999999995E-2</v>
+      </c>
+      <c r="Q75" s="5">
+        <v>-5.2410299999999998E-3</v>
+      </c>
+      <c r="R75" s="5">
+        <v>-6.3047861244974607E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" s="5">
+        <v>3.4399999999999999E-3</v>
+      </c>
+      <c r="D76" s="5">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="E76" s="6">
+        <v>2.3170499999999902E-3</v>
+      </c>
+      <c r="F76" s="5">
+        <v>2.57493999999999E-3</v>
+      </c>
+      <c r="G76" s="5">
+        <v>3.7487699999999998E-3</v>
+      </c>
+      <c r="H76" s="5">
+        <v>6.3251499999999903E-3</v>
+      </c>
+      <c r="I76" s="5">
+        <v>8.7302100000000004E-3</v>
+      </c>
+      <c r="J76" s="5">
+        <v>3.4099999999999998E-3</v>
+      </c>
+      <c r="K76" s="5">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="L76" s="5">
+        <v>2.30239999999999E-3</v>
+      </c>
+      <c r="M76" s="5">
+        <v>2.5527099999999902E-3</v>
+      </c>
+      <c r="N76" s="5">
+        <v>2.2301299999999899E-3</v>
+      </c>
+      <c r="O76" s="5">
+        <v>2.3549500000000002E-3</v>
+      </c>
+      <c r="P76" s="5">
+        <v>4.8222400000000002E-3</v>
+      </c>
+      <c r="Q76" s="5">
+        <v>3.9079699999999898E-3</v>
+      </c>
+      <c r="R76" s="5">
+        <v>0.447637571146627</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="5">
+        <v>9.1599999999999997E-3</v>
+      </c>
+      <c r="D77" s="5">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E77" s="6">
+        <v>4.1623709999999902E-3</v>
+      </c>
+      <c r="F77" s="5">
+        <v>4.59984E-3</v>
+      </c>
+      <c r="G77" s="5">
+        <v>7.5806859999999997E-3</v>
+      </c>
+      <c r="H77" s="5">
+        <v>1.1879159999999901E-2</v>
+      </c>
+      <c r="I77" s="5">
+        <v>2.0979319999999899E-2</v>
+      </c>
+      <c r="J77" s="5">
+        <v>7.2899999999999996E-3</v>
+      </c>
+      <c r="K77" s="5">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="L77" s="5">
+        <v>3.9839080000000004E-3</v>
+      </c>
+      <c r="M77" s="5">
+        <v>4.3479099999999904E-3</v>
+      </c>
+      <c r="N77" s="5">
+        <v>3.8748299999999901E-3</v>
+      </c>
+      <c r="O77" s="5">
+        <v>4.0664499999999897E-3</v>
+      </c>
+      <c r="P77" s="5">
+        <v>1.101854E-2</v>
+      </c>
+      <c r="Q77" s="5">
+        <v>9.9607799999999903E-3</v>
+      </c>
+      <c r="R77" s="5">
+        <v>0.47479041265398397</v>
+      </c>
+    </row>
+    <row r="78" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" s="5">
+        <v>5.64E-3</v>
+      </c>
+      <c r="D78" s="5">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="E78" s="6">
+        <v>3.3982999999999999E-3</v>
+      </c>
+      <c r="F78" s="5">
+        <v>3.6996799999999999E-3</v>
+      </c>
+      <c r="G78" s="5">
+        <v>9.3724299999999993E-3</v>
+      </c>
+      <c r="H78" s="5">
+        <v>1.2382439999999899E-2</v>
+      </c>
+      <c r="I78" s="5">
+        <v>1.6732759999999899E-2</v>
+      </c>
+      <c r="J78" s="5">
+        <v>4.6299999999999996E-3</v>
+      </c>
+      <c r="K78" s="5">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="L78" s="5">
+        <v>3.1816700000000002E-3</v>
+      </c>
+      <c r="M78" s="5">
+        <v>3.41187E-3</v>
+      </c>
+      <c r="N78" s="5">
+        <v>2.9642499999999999E-3</v>
+      </c>
+      <c r="O78" s="5">
+        <v>3.0788499999999902E-3</v>
+      </c>
+      <c r="P78" s="5">
+        <v>5.8269799999999903E-3</v>
+      </c>
+      <c r="Q78" s="5">
+        <v>1.09057799999999E-2</v>
+      </c>
+      <c r="R78" s="5">
+        <v>0.65176217193098995</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" s="5">
+        <v>8.3900000000000001E-4</v>
+      </c>
+      <c r="D79" s="5">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="E79" s="6">
+        <v>6.7089600000000004E-4</v>
+      </c>
+      <c r="F79" s="5">
+        <v>7.3601799999999898E-4</v>
+      </c>
+      <c r="G79" s="5">
+        <v>1.0078559999999999E-3</v>
+      </c>
+      <c r="H79" s="5">
+        <v>1.6581440000000001E-3</v>
+      </c>
+      <c r="I79" s="5">
+        <v>1.942126E-3</v>
+      </c>
+      <c r="J79" s="5">
+        <v>9.3999999999999997E-4</v>
+      </c>
+      <c r="K79" s="5">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L79" s="5">
+        <v>6.9124299999999905E-4</v>
+      </c>
+      <c r="M79" s="5">
+        <v>7.5147400000000002E-4</v>
+      </c>
+      <c r="N79" s="5">
+        <v>6.6323800000000002E-4</v>
+      </c>
+      <c r="O79" s="5">
+        <v>6.9336099999999998E-4</v>
+      </c>
+      <c r="P79" s="5">
+        <v>1.1618869999999999E-3</v>
+      </c>
+      <c r="Q79" s="5">
+        <v>7.8023899999999995E-4</v>
+      </c>
+      <c r="R79" s="5">
+        <v>0.40174478895807902</v>
+      </c>
+    </row>
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="5">
+        <v>9.9700000000000006E-4</v>
+      </c>
+      <c r="D80" s="5">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="E80" s="6">
+        <v>8.8454400000000002E-4</v>
+      </c>
+      <c r="F80" s="5">
+        <v>9.0521799999999898E-4</v>
+      </c>
+      <c r="G80" s="5">
+        <v>1.3395999999999901E-3</v>
+      </c>
+      <c r="H80" s="5">
+        <v>1.54677E-3</v>
+      </c>
+      <c r="I80" s="5">
+        <v>1.681552E-3</v>
+      </c>
+      <c r="J80" s="5">
+        <v>9.9700000000000006E-4</v>
+      </c>
+      <c r="K80" s="5">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="L80" s="5">
+        <v>8.8454400000000002E-4</v>
+      </c>
+      <c r="M80" s="5">
+        <v>9.0521799999999898E-4</v>
+      </c>
+      <c r="N80" s="5">
+        <v>8.5903999999999896E-4</v>
+      </c>
+      <c r="O80" s="5">
+        <v>8.6970599999999895E-4</v>
+      </c>
+      <c r="P80" s="5">
+        <v>1.00448799999999E-3</v>
+      </c>
+      <c r="Q80" s="5">
+        <v>6.7706400000000001E-4</v>
+      </c>
+      <c r="R80" s="5">
+        <v>0.40264232090354601</v>
+      </c>
+    </row>
+    <row r="81" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
       <c r="M81" s="2"/>
-    </row>
-    <row r="87" spans="5:13" x14ac:dyDescent="0.2">
+      <c r="R81" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R82" s="3">
+        <f>AVERAGE(R61:R80)</f>
+        <v>0.43888340089342026</v>
+      </c>
+    </row>
+    <row r="86" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="5:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E88" s="1"/>
       <c r="H88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E89" s="1"/>
-      <c r="H89" s="2"/>
-      <c r="L89" s="2"/>
-    </row>
-    <row r="90" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E90" s="1"/>
-      <c r="H90" s="2"/>
-      <c r="L90" s="2"/>
-    </row>
-    <row r="91" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E91" s="1"/>
-      <c r="H91" s="2"/>
-      <c r="L91" s="2"/>
-    </row>
-    <row r="92" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E92" s="1"/>
-      <c r="H92" s="2"/>
-      <c r="L92" s="2"/>
-    </row>
-    <row r="93" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E93" s="1"/>
-      <c r="H93" s="2"/>
-      <c r="L93" s="2"/>
-    </row>
-    <row r="94" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E94" s="1"/>
-      <c r="H94" s="2"/>
-      <c r="L94" s="2"/>
-    </row>
-    <row r="95" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E95" s="1"/>
-      <c r="H95" s="2"/>
-      <c r="L95" s="2"/>
-    </row>
-    <row r="96" spans="5:13" x14ac:dyDescent="0.2">
-      <c r="E96" s="1"/>
-      <c r="H96" s="2"/>
-      <c r="L96" s="2"/>
-    </row>
-    <row r="97" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E97" s="1"/>
-      <c r="H97" s="2"/>
-      <c r="L97" s="2"/>
-    </row>
-    <row r="98" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E98" s="1"/>
-      <c r="H98" s="2"/>
-      <c r="L98" s="2"/>
-    </row>
-    <row r="99" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E99" s="1"/>
-      <c r="H99" s="2"/>
-      <c r="L99" s="2"/>
-    </row>
-    <row r="100" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E100" s="1"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-    </row>
-    <row r="101" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E101" s="1"/>
-      <c r="H101" s="2"/>
-      <c r="L101" s="2"/>
-    </row>
-    <row r="102" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E102" s="1"/>
-      <c r="H102" s="2"/>
-      <c r="L102" s="2"/>
-    </row>
-    <row r="103" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E103" s="1"/>
-      <c r="H103" s="2"/>
-      <c r="L103" s="2"/>
-    </row>
-    <row r="104" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E104" s="1"/>
-      <c r="H104" s="2"/>
-      <c r="L104" s="2"/>
-    </row>
-    <row r="105" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E105" s="1"/>
-      <c r="H105" s="2"/>
-      <c r="L105" s="2"/>
-    </row>
-    <row r="106" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E106" s="1"/>
-      <c r="H106" s="2"/>
-      <c r="L106" s="2"/>
-    </row>
-    <row r="107" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E107" s="1"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-    </row>
-    <row r="112" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B89" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" t="s">
+        <v>42</v>
+      </c>
+      <c r="G89" t="s">
+        <v>56</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I89" t="s">
+        <v>35</v>
+      </c>
+      <c r="J89" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" t="s">
+        <v>36</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M89" t="s">
+        <v>47</v>
+      </c>
+      <c r="N89" t="s">
+        <v>59</v>
+      </c>
+      <c r="O89" t="s">
+        <v>49</v>
+      </c>
+      <c r="P89" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>29</v>
+      </c>
+      <c r="R89" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B90" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90">
+        <v>4.6700000000000002E-4</v>
+      </c>
+      <c r="D90">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="E90" s="4">
+        <v>4.4602850000000003E-5</v>
+      </c>
+      <c r="F90">
+        <v>1.139768E-3</v>
+      </c>
+      <c r="G90">
+        <v>4.4602850000000001E-4</v>
+      </c>
+      <c r="H90" s="2">
+        <v>2.3203199999999899E-3</v>
+      </c>
+      <c r="I90">
+        <v>3.3905519999999898E-3</v>
+      </c>
+      <c r="J90">
+        <v>3.68E-4</v>
+      </c>
+      <c r="K90">
+        <v>1.74E-3</v>
+      </c>
+      <c r="L90" s="2">
+        <v>3.0087049999999999E-5</v>
+      </c>
+      <c r="M90">
+        <v>1.1126579999999899E-3</v>
+      </c>
+      <c r="N90" s="2">
+        <v>1.50387899999999E-5</v>
+      </c>
+      <c r="O90">
+        <v>1.0605289999999999E-3</v>
+      </c>
+      <c r="P90">
+        <v>1.6878710000000001E-3</v>
+      </c>
+      <c r="Q90">
+        <v>1.70268099999999E-3</v>
+      </c>
+      <c r="R90" s="3">
+        <v>0.50218401015527803</v>
+      </c>
+    </row>
+    <row r="91" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B91" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>1.06E-3</v>
+      </c>
+      <c r="D91">
+        <v>5.5599999999999998E-3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1.3670948400000001E-4</v>
+      </c>
+      <c r="F91">
+        <v>3.5077699999999999E-3</v>
+      </c>
+      <c r="G91">
+        <v>1.36709484E-3</v>
+      </c>
+      <c r="H91" s="2">
+        <v>6.6705899999999997E-3</v>
+      </c>
+      <c r="I91">
+        <v>8.7228199999999905E-3</v>
+      </c>
+      <c r="J91">
+        <v>8.9700000000000001E-4</v>
+      </c>
+      <c r="K91">
+        <v>4.96E-3</v>
+      </c>
+      <c r="L91" s="2">
+        <v>1.13430271E-4</v>
+      </c>
+      <c r="M91">
+        <v>3.4663900000000002E-3</v>
+      </c>
+      <c r="N91" s="2">
+        <v>5.6685815200000003E-5</v>
+      </c>
+      <c r="O91">
+        <v>3.31196999999999E-3</v>
+      </c>
+      <c r="P91">
+        <v>4.8055799999999899E-3</v>
+      </c>
+      <c r="Q91">
+        <v>3.9172399999999998E-3</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0.449079540790707</v>
+      </c>
+    </row>
+    <row r="92" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B92" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92">
+        <v>8.6700000000000006E-3</v>
+      </c>
+      <c r="D92">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="E92" s="1">
+        <v>2.9494699999999999E-4</v>
+      </c>
+      <c r="F92">
+        <v>1.6470269999999999E-3</v>
+      </c>
+      <c r="G92">
+        <v>2.9494699999999901E-3</v>
+      </c>
+      <c r="H92" s="2">
+        <v>6.5972199999999896E-3</v>
+      </c>
+      <c r="I92">
+        <v>2.6650192999999898E-2</v>
+      </c>
+      <c r="J92">
+        <v>7.8700000000000003E-3</v>
+      </c>
+      <c r="K92">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="L92" s="2">
+        <v>2.5246199999999898E-4</v>
+      </c>
+      <c r="M92">
+        <v>1.5652349999999899E-3</v>
+      </c>
+      <c r="N92">
+        <v>1.2623029999999901E-4</v>
+      </c>
+      <c r="O92">
+        <v>1.3311199999999899E-3</v>
+      </c>
+      <c r="P92">
+        <v>1.9965884999999899E-2</v>
+      </c>
+      <c r="Q92">
+        <v>6.6843079999999904E-3</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0.25081649502500702</v>
+      </c>
+    </row>
+    <row r="93" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93">
+        <v>6.0899999999999999E-3</v>
+      </c>
+      <c r="D93">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1.8631403E-3</v>
+      </c>
+      <c r="F93">
+        <v>6.70230999999999E-3</v>
+      </c>
+      <c r="G93">
+        <v>1.8631402999999901E-2</v>
+      </c>
+      <c r="H93" s="2">
+        <v>2.7699769999999901E-2</v>
+      </c>
+      <c r="I93">
+        <v>4.1997459999999903E-2</v>
+      </c>
+      <c r="J93">
+        <v>4.1200000000000004E-3</v>
+      </c>
+      <c r="K93">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L93" s="2">
+        <v>1.1727673799999999E-3</v>
+      </c>
+      <c r="M93">
+        <v>6.0693599999999898E-3</v>
+      </c>
+      <c r="N93">
+        <v>5.8626158999999897E-4</v>
+      </c>
+      <c r="O93">
+        <v>5.2262699999999999E-3</v>
+      </c>
+      <c r="P93">
+        <v>1.385691E-2</v>
+      </c>
+      <c r="Q93">
+        <v>2.81405499999999E-2</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0.67005361752829795</v>
+      </c>
+    </row>
+    <row r="94" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94">
+        <v>1.15E-2</v>
+      </c>
+      <c r="D94">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="E94" s="1">
+        <v>5.2864100000000005E-4</v>
+      </c>
+      <c r="F94">
+        <v>3.5845999999999999E-3</v>
+      </c>
+      <c r="G94">
+        <v>5.2864100000000001E-3</v>
+      </c>
+      <c r="H94" s="2">
+        <v>1.15961E-2</v>
+      </c>
+      <c r="I94">
+        <v>3.4111499999999899E-2</v>
+      </c>
+      <c r="J94">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K94">
+        <v>1.37E-2</v>
+      </c>
+      <c r="L94" s="2">
+        <v>4.57073549999999E-4</v>
+      </c>
+      <c r="M94">
+        <v>4.2467599999999901E-3</v>
+      </c>
+      <c r="N94">
+        <v>2.2850725E-4</v>
+      </c>
+      <c r="O94">
+        <v>3.4693899999999902E-3</v>
+      </c>
+      <c r="P94">
+        <v>1.2922629999999999E-2</v>
+      </c>
+      <c r="Q94">
+        <v>2.1188869999999901E-2</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0.621165003004851</v>
+      </c>
+    </row>
+    <row r="95" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C95">
+        <v>3.0999999999999999E-3</v>
+      </c>
+      <c r="D95">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="E95" s="1">
+        <v>1.0663049999999901E-3</v>
+      </c>
+      <c r="F95">
+        <v>3.6812699999999997E-2</v>
+      </c>
+      <c r="G95">
+        <v>1.066305E-2</v>
+      </c>
+      <c r="H95" s="2">
+        <v>6.6028900000000001E-2</v>
+      </c>
+      <c r="I95">
+        <v>7.2016200000000002E-2</v>
+      </c>
+      <c r="J95">
+        <v>3.46E-3</v>
+      </c>
+      <c r="K95">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="L95" s="2">
+        <v>8.5637469999999896E-4</v>
+      </c>
+      <c r="M95">
+        <v>3.64499E-2</v>
+      </c>
+      <c r="N95">
+        <v>4.2796569999999898E-4</v>
+      </c>
+      <c r="O95">
+        <v>3.5047999999999899E-2</v>
+      </c>
+      <c r="P95">
+        <v>4.2298099999999901E-2</v>
+      </c>
+      <c r="Q95">
+        <v>2.9718100000000001E-2</v>
+      </c>
+      <c r="R95" s="3">
+        <v>0.41265854071722702</v>
+      </c>
+    </row>
+    <row r="96" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <v>1.47E-4</v>
+      </c>
+      <c r="D96">
+        <v>4.84E-4</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1.3401300001883199E-4</v>
+      </c>
+      <c r="F96">
+        <v>4.5404026164999899E-4</v>
+      </c>
+      <c r="G96">
+        <v>1.34013000018832E-3</v>
+      </c>
+      <c r="H96" s="2">
+        <v>4.0824002631599902E-3</v>
+      </c>
+      <c r="I96">
+        <v>4.1123600015099898E-3</v>
+      </c>
+      <c r="J96">
+        <v>1.5200000000000001E-4</v>
+      </c>
+      <c r="K96">
+        <v>5.2499999999999997E-4</v>
+      </c>
+      <c r="L96" s="2">
+        <v>1.26603000018823E-4</v>
+      </c>
+      <c r="M96">
+        <v>4.45840261649999E-4</v>
+      </c>
+      <c r="N96" s="2">
+        <v>6.3286000009412898E-5</v>
+      </c>
+      <c r="O96">
+        <v>2.4839026163999903E-4</v>
+      </c>
+      <c r="P96">
+        <v>3.2754999998999999E-4</v>
+      </c>
+      <c r="Q96">
+        <v>3.7848100015199899E-3</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0.92034987212458796</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <v>7.3800000000000005E-4</v>
+      </c>
+      <c r="D97">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="E97" s="1">
+        <v>2.1420639600000001E-4</v>
+      </c>
+      <c r="F97">
+        <v>3.7652999999999901E-3</v>
+      </c>
+      <c r="G97">
+        <v>2.1420639599999901E-3</v>
+      </c>
+      <c r="H97" s="2">
+        <v>8.4554000000000001E-3</v>
+      </c>
+      <c r="I97">
+        <v>9.5400999999999993E-3</v>
+      </c>
+      <c r="J97">
+        <v>7.1900000000000002E-4</v>
+      </c>
+      <c r="K97">
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="L97" s="2">
+        <v>9.6680400000000004E-5</v>
+      </c>
+      <c r="M97">
+        <v>3.5715999999999899E-3</v>
+      </c>
+      <c r="N97" s="2">
+        <v>4.8331500000000003E-5</v>
+      </c>
+      <c r="O97">
+        <v>3.4080999999999998E-3</v>
+      </c>
+      <c r="P97">
+        <v>5.8964999999999998E-3</v>
+      </c>
+      <c r="Q97">
+        <v>3.6435999999999899E-3</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0.381924717770253</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <v>3.8400000000000001E-4</v>
+      </c>
+      <c r="D98">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E98" s="4">
+        <v>4.1235000000000001E-5</v>
+      </c>
+      <c r="F98">
+        <v>3.4717999999999902E-4</v>
+      </c>
+      <c r="G98">
+        <v>4.1234999999999899E-4</v>
+      </c>
+      <c r="H98" s="2">
+        <v>9.1896999999999899E-4</v>
+      </c>
+      <c r="I98">
+        <v>1.67179E-3</v>
+      </c>
+      <c r="J98">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="K98">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L98" s="2">
+        <v>4.4203399999999903E-5</v>
+      </c>
+      <c r="M98">
+        <v>3.5296999999999998E-4</v>
+      </c>
+      <c r="N98" s="2">
+        <v>2.21018799999999E-5</v>
+      </c>
+      <c r="O98">
+        <v>3.1824000000000002E-4</v>
+      </c>
+      <c r="P98">
+        <v>1.18527E-3</v>
+      </c>
+      <c r="Q98">
+        <v>4.8651999999999902E-4</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0.29101741247405399</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B99" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99">
+        <v>6.8400000000000004E-4</v>
+      </c>
+      <c r="D99">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E99" s="1">
+        <v>2.42350469999999E-4</v>
+      </c>
+      <c r="F99">
+        <v>7.5589999999999902E-3</v>
+      </c>
+      <c r="G99">
+        <v>2.4235046999999902E-3</v>
+      </c>
+      <c r="H99" s="2">
+        <v>1.407634E-2</v>
+      </c>
+      <c r="I99">
+        <v>1.531734E-2</v>
+      </c>
+      <c r="J99">
+        <v>1.33E-3</v>
+      </c>
+      <c r="K99">
+        <v>1.09E-2</v>
+      </c>
+      <c r="L99" s="2">
+        <v>1.2507077000000001E-4</v>
+      </c>
+      <c r="M99">
+        <v>7.4665199999999904E-3</v>
+      </c>
+      <c r="N99" s="2">
+        <v>6.2543339999999903E-5</v>
+      </c>
+      <c r="O99">
+        <v>7.1781899999999897E-3</v>
+      </c>
+      <c r="P99">
+        <v>1.06116699999999E-2</v>
+      </c>
+      <c r="Q99">
+        <v>4.7056700000000003E-3</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0.307211957167497</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>6.4099999999999999E-3</v>
+      </c>
+      <c r="D100">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E100" s="1">
+        <v>3.5756079999999901E-3</v>
+      </c>
+      <c r="F100">
+        <v>0.12532929999999901</v>
+      </c>
+      <c r="G100" s="2">
+        <v>3.5756079999999898E-2</v>
+      </c>
+      <c r="H100" s="2">
+        <v>0.219931299999999</v>
+      </c>
+      <c r="I100">
+        <v>0.24060200000000001</v>
+      </c>
+      <c r="J100">
+        <v>1.8100000000000002E-2</v>
+      </c>
+      <c r="K100" s="2">
+        <v>0.156</v>
+      </c>
+      <c r="L100" s="2">
+        <v>5.8627199999999901E-4</v>
+      </c>
+      <c r="M100">
+        <v>0.12119920000000001</v>
+      </c>
+      <c r="N100">
+        <v>2.93165999999999E-4</v>
+      </c>
+      <c r="O100">
+        <v>0.11804379999999901</v>
+      </c>
+      <c r="P100">
+        <v>0.152844599999999</v>
+      </c>
+      <c r="Q100">
+        <v>8.7757399999999999E-2</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0.36474094147180802</v>
+      </c>
+    </row>
+    <row r="101" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B101" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101">
+        <v>4.3800000000000002E-3</v>
+      </c>
+      <c r="D101">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E101" s="1">
+        <v>2.154932E-3</v>
+      </c>
+      <c r="F101">
+        <v>4.4913399999999999E-2</v>
+      </c>
+      <c r="G101">
+        <v>2.154932E-2</v>
+      </c>
+      <c r="H101" s="2">
+        <v>9.6929999999999905E-2</v>
+      </c>
+      <c r="I101">
+        <v>0.10901659999999901</v>
+      </c>
+      <c r="J101">
+        <v>7.1799999999999998E-3</v>
+      </c>
+      <c r="K101">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="L101" s="2">
+        <v>9.0672799999999901E-4</v>
+      </c>
+      <c r="M101">
+        <v>4.3110000000000002E-2</v>
+      </c>
+      <c r="N101">
+        <v>4.5423600000000001E-4</v>
+      </c>
+      <c r="O101">
+        <v>4.1162199999999899E-2</v>
+      </c>
+      <c r="P101">
+        <v>5.5752199999999898E-2</v>
+      </c>
+      <c r="Q101">
+        <v>5.3264399999999899E-2</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0.48858981109298899</v>
+      </c>
+    </row>
+    <row r="102" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C102" s="2">
+        <v>6.4599999999999998E-5</v>
+      </c>
+      <c r="D102">
+        <v>4.26E-4</v>
+      </c>
+      <c r="E102" s="4">
+        <v>1.8526950000000001E-5</v>
+      </c>
+      <c r="F102">
+        <v>3.2938999999999999E-4</v>
+      </c>
+      <c r="G102">
+        <v>1.8526950000000001E-4</v>
+      </c>
+      <c r="H102" s="2">
+        <v>6.9052000000000002E-4</v>
+      </c>
+      <c r="I102">
+        <v>7.8713000000000003E-4</v>
+      </c>
+      <c r="J102" s="2">
+        <v>7.5500000000000006E-5</v>
+      </c>
+      <c r="K102">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="L102" s="2">
+        <v>1.2928160000254999E-5</v>
+      </c>
+      <c r="M102">
+        <v>3.1981000000000002E-4</v>
+      </c>
+      <c r="N102" s="2">
+        <v>6.4664800001280004E-6</v>
+      </c>
+      <c r="O102">
+        <v>3.0441000000000002E-4</v>
+      </c>
+      <c r="P102">
+        <v>4.31599999999999E-4</v>
+      </c>
+      <c r="Q102">
+        <v>3.5553000000000001E-4</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0.45167888404710699</v>
+      </c>
+    </row>
+    <row r="103" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B103" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>1.54E-2</v>
+      </c>
+      <c r="D103">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E103" s="1">
+        <v>8.3345244000000002E-4</v>
+      </c>
+      <c r="F103">
+        <v>1.24532899999999E-2</v>
+      </c>
+      <c r="G103">
+        <v>8.3345243999999995E-3</v>
+      </c>
+      <c r="H103" s="2">
+        <v>2.67285499999999E-2</v>
+      </c>
+      <c r="I103">
+        <v>5.7275259999999897E-2</v>
+      </c>
+      <c r="J103">
+        <v>1.3100000000000001E-2</v>
+      </c>
+      <c r="K103">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="L103" s="2">
+        <v>6.2912503000000001E-4</v>
+      </c>
+      <c r="M103">
+        <v>1.233252E-2</v>
+      </c>
+      <c r="N103">
+        <v>3.1464152999999902E-4</v>
+      </c>
+      <c r="O103">
+        <v>1.162319E-2</v>
+      </c>
+      <c r="P103">
+        <v>3.7190670000000002E-2</v>
+      </c>
+      <c r="Q103">
+        <v>2.0084589999999899E-2</v>
+      </c>
+      <c r="R103" s="3">
+        <v>0.35066781015048998</v>
+      </c>
+    </row>
+    <row r="104" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B104" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C104">
+        <v>2.0400000000000001E-2</v>
+      </c>
+      <c r="D104">
+        <v>5.96E-2</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1.36336269999999E-3</v>
+      </c>
+      <c r="F104">
+        <v>1.4597239999999999E-2</v>
+      </c>
+      <c r="G104">
+        <v>1.3633627000000001E-2</v>
+      </c>
+      <c r="H104" s="2">
+        <v>3.8125039999999999E-2</v>
+      </c>
+      <c r="I104">
+        <v>8.3127800000000002E-2</v>
+      </c>
+      <c r="J104">
+        <v>3.4099999999999998E-2</v>
+      </c>
+      <c r="K104">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="L104" s="2">
+        <v>3.2907031934999902E-3</v>
+      </c>
+      <c r="M104">
+        <v>1.9450149999999899E-2</v>
+      </c>
+      <c r="N104">
+        <v>1.6445719567000001E-3</v>
+      </c>
+      <c r="O104">
+        <v>1.571898E-2</v>
+      </c>
+      <c r="P104">
+        <v>8.8368829999999995E-2</v>
+      </c>
+      <c r="Q104">
+        <v>-5.2410299999999998E-3</v>
+      </c>
+      <c r="R104" s="3">
+        <v>-6.3047861244974607E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B105" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105">
+        <v>1.5399999999999999E-3</v>
+      </c>
+      <c r="D105">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="E105" s="1">
+        <v>2.5745009999999998E-4</v>
+      </c>
+      <c r="F105">
+        <v>2.57493999999999E-3</v>
+      </c>
+      <c r="G105">
+        <v>2.5745009999999899E-3</v>
+      </c>
+      <c r="H105" s="2">
+        <v>6.3251499999999903E-3</v>
+      </c>
+      <c r="I105">
+        <v>8.7302100000000004E-3</v>
+      </c>
+      <c r="J105">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="K105">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="L105" s="2">
+        <v>2.4999319999999899E-4</v>
+      </c>
+      <c r="M105">
+        <v>2.5527099999999902E-3</v>
+      </c>
+      <c r="N105">
+        <v>1.250619E-4</v>
+      </c>
+      <c r="O105">
+        <v>2.3549500000000002E-3</v>
+      </c>
+      <c r="P105">
+        <v>4.8222400000000002E-3</v>
+      </c>
+      <c r="Q105">
+        <v>3.9079699999999898E-3</v>
+      </c>
+      <c r="R105" s="3">
+        <v>0.447637571146627</v>
+      </c>
+    </row>
+    <row r="106" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B106" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>4.5199999999999997E-3</v>
+      </c>
+      <c r="D106">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E106" s="1">
+        <v>4.3288364299999901E-4</v>
+      </c>
+      <c r="F106">
+        <v>4.59984E-3</v>
+      </c>
+      <c r="G106">
+        <v>4.3288364299999896E-3</v>
+      </c>
+      <c r="H106" s="2">
+        <v>1.1879159999999901E-2</v>
+      </c>
+      <c r="I106">
+        <v>2.0979319999999899E-2</v>
+      </c>
+      <c r="J106">
+        <v>4.0200000000000001E-3</v>
+      </c>
+      <c r="K106">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="L106" s="2">
+        <v>3.6802864249999999E-4</v>
+      </c>
+      <c r="M106">
+        <v>4.3479099999999904E-3</v>
+      </c>
+      <c r="N106">
+        <v>1.839859633E-4</v>
+      </c>
+      <c r="O106">
+        <v>4.0664499999999897E-3</v>
+      </c>
+      <c r="P106">
+        <v>1.101854E-2</v>
+      </c>
+      <c r="Q106">
+        <v>9.9607799999999903E-3</v>
+      </c>
+      <c r="R106" s="3">
+        <v>0.47479041265398397</v>
+      </c>
+    </row>
+    <row r="107" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C107">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D107">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="E107" s="1">
+        <v>3.0100945190185798E-4</v>
+      </c>
+      <c r="F107">
+        <v>3.6996799999999999E-3</v>
+      </c>
+      <c r="G107" s="2">
+        <v>3.0100945190185799E-3</v>
+      </c>
+      <c r="H107" s="2">
+        <v>1.2382439999999899E-2</v>
+      </c>
+      <c r="I107">
+        <v>1.6732759999999899E-2</v>
+      </c>
+      <c r="J107">
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="K107" s="2">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="L107" s="2">
+        <v>2.2933874247695201E-4</v>
+      </c>
+      <c r="M107">
+        <v>3.41187E-3</v>
+      </c>
+      <c r="N107">
+        <v>1.14656882648526E-4</v>
+      </c>
+      <c r="O107">
+        <v>3.0788499999999902E-3</v>
+      </c>
+      <c r="P107">
+        <v>5.8269799999999903E-3</v>
+      </c>
+      <c r="Q107">
+        <v>1.09057799999999E-2</v>
+      </c>
+      <c r="R107" s="3">
+        <v>0.65176217193098995</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>1.7899999999999999E-4</v>
+      </c>
+      <c r="D108">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="E108" s="2">
+        <v>6.5116359999999894E-5</v>
+      </c>
+      <c r="F108">
+        <v>7.3601799999999898E-4</v>
+      </c>
+      <c r="G108">
+        <v>6.5116359999999995E-4</v>
+      </c>
+      <c r="H108">
+        <v>1.6581440000000001E-3</v>
+      </c>
+      <c r="I108">
+        <v>1.942126E-3</v>
+      </c>
+      <c r="J108">
+        <v>2.7799999999999998E-4</v>
+      </c>
+      <c r="K108">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L108" s="2">
+        <v>6.0224742700000002E-5</v>
+      </c>
+      <c r="M108">
+        <v>7.5147400000000002E-4</v>
+      </c>
+      <c r="N108" s="2">
+        <v>3.01158954999999E-5</v>
+      </c>
+      <c r="O108">
+        <v>6.9336099999999998E-4</v>
+      </c>
+      <c r="P108">
+        <v>1.1618869999999999E-3</v>
+      </c>
+      <c r="Q108">
+        <v>7.8023899999999995E-4</v>
+      </c>
+      <c r="R108" s="3">
+        <v>0.40174478895807902</v>
+      </c>
+    </row>
+    <row r="109" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C109" s="2">
+        <v>4.3800000000000001E-5</v>
+      </c>
+      <c r="D109">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="E109" s="2">
+        <v>2.0572099999999999E-5</v>
+      </c>
+      <c r="F109">
+        <v>9.0521799999999898E-4</v>
+      </c>
+      <c r="G109">
+        <v>2.0572099999999999E-4</v>
+      </c>
+      <c r="H109">
+        <v>1.54677E-3</v>
+      </c>
+      <c r="I109">
+        <v>1.681552E-3</v>
+      </c>
+      <c r="J109" s="2">
+        <v>4.3800000000000001E-5</v>
+      </c>
+      <c r="K109">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="L109" s="2">
+        <v>2.0572099999999999E-5</v>
+      </c>
+      <c r="M109">
+        <v>9.0521799999999898E-4</v>
+      </c>
+      <c r="N109" s="2">
+        <v>1.02898599999999E-5</v>
+      </c>
+      <c r="O109">
+        <v>8.6970599999999895E-4</v>
+      </c>
+      <c r="P109">
+        <v>1.00448799999999E-3</v>
+      </c>
+      <c r="Q109">
+        <v>6.7706400000000001E-4</v>
+      </c>
+      <c r="R109" s="3">
+        <v>0.40264232090354601</v>
+      </c>
+    </row>
+    <row r="111" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="R111" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="5:12" x14ac:dyDescent="0.2">
+      <c r="R112" s="3">
+        <f>AVERAGE(R90:R109)</f>
+        <v>0.43888340089342026</v>
+      </c>
+    </row>
+    <row r="113" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E113" s="1"/>
       <c r="H113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E114" s="1"/>
       <c r="H114" s="2"/>
       <c r="L114" s="2"/>
     </row>
-    <row r="115" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
       <c r="E115" s="1"/>
       <c r="H115" s="2"/>
       <c r="L115" s="2"/>
     </row>
-    <row r="116" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E116" s="1"/>
       <c r="H116" s="2"/>
       <c r="L116" s="2"/>
     </row>
-    <row r="117" spans="5:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E117" s="1"/>
       <c r="H117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E118" s="1"/>
-      <c r="H118" s="2"/>
-      <c r="L118" s="2"/>
-    </row>
-    <row r="119" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E119" s="1"/>
-      <c r="H119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-    </row>
-    <row r="120" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E120" s="1"/>
-      <c r="H120" s="2"/>
-      <c r="L120" s="2"/>
-    </row>
-    <row r="121" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E121" s="1"/>
-      <c r="H121" s="2"/>
-      <c r="L121" s="2"/>
-    </row>
-    <row r="122" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E122" s="1"/>
-      <c r="H122" s="2"/>
-      <c r="L122" s="2"/>
-    </row>
-    <row r="123" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E123" s="1"/>
-      <c r="H123" s="2"/>
-      <c r="L123" s="2"/>
-    </row>
-    <row r="124" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E124" s="1"/>
-      <c r="H124" s="2"/>
-      <c r="L124" s="2"/>
-    </row>
-    <row r="125" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E125" s="1"/>
-      <c r="H125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-    </row>
-    <row r="126" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E126" s="1"/>
-      <c r="H126" s="2"/>
-      <c r="L126" s="2"/>
-    </row>
-    <row r="127" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E127" s="1"/>
-      <c r="H127" s="2"/>
-      <c r="L127" s="2"/>
-    </row>
-    <row r="128" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E128" s="1"/>
-      <c r="H128" s="2"/>
-      <c r="L128" s="2"/>
-    </row>
-    <row r="129" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E129" s="1"/>
-      <c r="H129" s="2"/>
-      <c r="L129" s="2"/>
-    </row>
-    <row r="130" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E130" s="1"/>
-      <c r="H130" s="2"/>
-      <c r="L130" s="2"/>
-    </row>
-    <row r="131" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E131" s="1"/>
-      <c r="H131" s="2"/>
-      <c r="L131" s="2"/>
-    </row>
-    <row r="132" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E132" s="1"/>
-      <c r="H132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-    </row>
-    <row r="139" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B118" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>60</v>
+      </c>
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F118" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" t="s">
+        <v>62</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I118" t="s">
+        <v>35</v>
+      </c>
+      <c r="J118" t="s">
+        <v>63</v>
+      </c>
+      <c r="K118" t="s">
+        <v>36</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M118" t="s">
+        <v>47</v>
+      </c>
+      <c r="N118" t="s">
+        <v>65</v>
+      </c>
+      <c r="O118" t="s">
+        <v>49</v>
+      </c>
+      <c r="P118" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>29</v>
+      </c>
+      <c r="R118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B119" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" s="2">
+        <v>4.4899999999999998E-8</v>
+      </c>
+      <c r="D119">
+        <v>2.2100000000000002E-3</v>
+      </c>
+      <c r="E119" s="4">
+        <v>1.3588400000000001E-8</v>
+      </c>
+      <c r="F119">
+        <v>1.139768E-3</v>
+      </c>
+      <c r="G119" s="2">
+        <v>1.3588400000000001E-8</v>
+      </c>
+      <c r="H119" s="2">
+        <v>2.3203199999999899E-3</v>
+      </c>
+      <c r="I119">
+        <v>3.3905519999999898E-3</v>
+      </c>
+      <c r="J119" s="2">
+        <v>4.5900000000000001E-8</v>
+      </c>
+      <c r="K119" s="2">
+        <v>1.74E-3</v>
+      </c>
+      <c r="L119" s="2">
+        <v>1.3588400000000001E-8</v>
+      </c>
+      <c r="M119">
+        <v>1.1126579999999899E-3</v>
+      </c>
+      <c r="N119" s="2">
+        <v>1.3588400000000001E-8</v>
+      </c>
+      <c r="O119">
+        <v>1.0605289999999999E-3</v>
+      </c>
+      <c r="P119">
+        <v>1.6878710000000001E-3</v>
+      </c>
+      <c r="Q119">
+        <v>1.70268099999999E-3</v>
+      </c>
+      <c r="R119" s="3">
+        <v>0.50218401015527803</v>
+      </c>
+    </row>
+    <row r="120" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" s="2">
+        <v>4.3499999999999999E-8</v>
+      </c>
+      <c r="D120">
+        <v>5.5599999999999998E-3</v>
+      </c>
+      <c r="E120" s="4">
+        <v>1.6356719999999999E-8</v>
+      </c>
+      <c r="F120">
+        <v>3.5077699999999999E-3</v>
+      </c>
+      <c r="G120" s="2">
+        <v>1.6356719999999999E-8</v>
+      </c>
+      <c r="H120" s="2">
+        <v>6.6705899999999997E-3</v>
+      </c>
+      <c r="I120">
+        <v>8.7228199999999905E-3</v>
+      </c>
+      <c r="J120" s="2">
+        <v>4.2599999999999998E-8</v>
+      </c>
+      <c r="K120">
+        <v>4.96E-3</v>
+      </c>
+      <c r="L120" s="2">
+        <v>1.6356719999999999E-8</v>
+      </c>
+      <c r="M120">
+        <v>3.4663900000000002E-3</v>
+      </c>
+      <c r="N120" s="2">
+        <v>1.6356719999999999E-8</v>
+      </c>
+      <c r="O120">
+        <v>3.31196999999999E-3</v>
+      </c>
+      <c r="P120">
+        <v>4.8055799999999899E-3</v>
+      </c>
+      <c r="Q120">
+        <v>3.9172399999999998E-3</v>
+      </c>
+      <c r="R120" s="3">
+        <v>0.449079540790707</v>
+      </c>
+    </row>
+    <row r="121" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B121" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1.23E-7</v>
+      </c>
+      <c r="D121">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1.7899520000000001E-8</v>
+      </c>
+      <c r="F121">
+        <v>1.6470269999999999E-3</v>
+      </c>
+      <c r="G121" s="2">
+        <v>1.7899520000000001E-8</v>
+      </c>
+      <c r="H121" s="2">
+        <v>6.5972199999999896E-3</v>
+      </c>
+      <c r="I121">
+        <v>2.6650192999999898E-2</v>
+      </c>
+      <c r="J121" s="2">
+        <v>1.3300000000000001E-7</v>
+      </c>
+      <c r="K121">
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="L121" s="2">
+        <v>1.7899520000000001E-8</v>
+      </c>
+      <c r="M121">
+        <v>1.5652349999999899E-3</v>
+      </c>
+      <c r="N121" s="2">
+        <v>1.7899520000000001E-8</v>
+      </c>
+      <c r="O121">
+        <v>1.3311199999999899E-3</v>
+      </c>
+      <c r="P121">
+        <v>1.9965884999999899E-2</v>
+      </c>
+      <c r="Q121">
+        <v>6.6843079999999904E-3</v>
+      </c>
+      <c r="R121" s="3">
+        <v>0.25081649502500702</v>
+      </c>
+    </row>
+    <row r="122" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2">
+        <v>7.4600000000000006E-8</v>
+      </c>
+      <c r="D122">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1.192812E-8</v>
+      </c>
+      <c r="F122">
+        <v>6.70230999999999E-3</v>
+      </c>
+      <c r="G122" s="2">
+        <v>1.192812E-8</v>
+      </c>
+      <c r="H122" s="2">
+        <v>2.7699769999999901E-2</v>
+      </c>
+      <c r="I122">
+        <v>4.1997459999999903E-2</v>
+      </c>
+      <c r="J122" s="2">
+        <v>6.9100000000000003E-8</v>
+      </c>
+      <c r="K122">
+        <v>1.47E-2</v>
+      </c>
+      <c r="L122" s="2">
+        <v>1.196223E-8</v>
+      </c>
+      <c r="M122">
+        <v>6.0693599999999898E-3</v>
+      </c>
+      <c r="N122" s="2">
+        <v>1.196223E-8</v>
+      </c>
+      <c r="O122">
+        <v>5.2262699999999999E-3</v>
+      </c>
+      <c r="P122">
+        <v>1.385691E-2</v>
+      </c>
+      <c r="Q122">
+        <v>2.81405499999999E-2</v>
+      </c>
+      <c r="R122" s="3">
+        <v>0.67005361752829795</v>
+      </c>
+    </row>
+    <row r="123" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1.18E-8</v>
+      </c>
+      <c r="D123">
+        <v>2.6100000000000002E-2</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2.4560399999999898E-9</v>
+      </c>
+      <c r="F123">
+        <v>3.5845999999999999E-3</v>
+      </c>
+      <c r="G123" s="2">
+        <v>2.4560399999999898E-9</v>
+      </c>
+      <c r="H123" s="2">
+        <v>1.15961E-2</v>
+      </c>
+      <c r="I123">
+        <v>3.4111499999999899E-2</v>
+      </c>
+      <c r="J123" s="2">
+        <v>1.1199999999999999E-8</v>
+      </c>
+      <c r="K123">
+        <v>1.37E-2</v>
+      </c>
+      <c r="L123" s="2">
+        <v>2.4560399999999898E-9</v>
+      </c>
+      <c r="M123">
+        <v>4.2467599999999901E-3</v>
+      </c>
+      <c r="N123" s="2">
+        <v>2.4560399999999898E-9</v>
+      </c>
+      <c r="O123">
+        <v>3.4693899999999902E-3</v>
+      </c>
+      <c r="P123">
+        <v>1.2922629999999999E-2</v>
+      </c>
+      <c r="Q123">
+        <v>2.1188869999999901E-2</v>
+      </c>
+      <c r="R123" s="3">
+        <v>0.621165003004851</v>
+      </c>
+    </row>
+    <row r="124" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B124" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" s="2">
+        <v>4.3800000000000002E-8</v>
+      </c>
+      <c r="D124">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="E124" s="4">
+        <v>2.4366280000000001E-8</v>
+      </c>
+      <c r="F124">
+        <v>3.6812699999999997E-2</v>
+      </c>
+      <c r="G124" s="2">
+        <v>2.4366280000000001E-8</v>
+      </c>
+      <c r="H124" s="2">
+        <v>6.6028900000000001E-2</v>
+      </c>
+      <c r="I124">
+        <v>7.2016200000000002E-2</v>
+      </c>
+      <c r="J124" s="2">
+        <v>4.2799999999999999E-8</v>
+      </c>
+      <c r="K124">
+        <v>4.3700000000000003E-2</v>
+      </c>
+      <c r="L124" s="2">
+        <v>2.4366280000000001E-8</v>
+      </c>
+      <c r="M124">
+        <v>3.64499E-2</v>
+      </c>
+      <c r="N124" s="2">
+        <v>2.4366280000000001E-8</v>
+      </c>
+      <c r="O124">
+        <v>3.5047999999999899E-2</v>
+      </c>
+      <c r="P124">
+        <v>4.2298099999999901E-2</v>
+      </c>
+      <c r="Q124">
+        <v>2.9718100000000001E-2</v>
+      </c>
+      <c r="R124" s="3">
+        <v>0.41265854071722702</v>
+      </c>
+    </row>
+    <row r="125" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" s="2">
+        <v>1.1599999999999999E-9</v>
+      </c>
+      <c r="D125">
+        <v>4.84E-4</v>
+      </c>
+      <c r="E125" s="4">
+        <v>7.0051999999999905E-10</v>
+      </c>
+      <c r="F125">
+        <v>4.5404026164999899E-4</v>
+      </c>
+      <c r="G125" s="2">
+        <v>7.0051999999999905E-10</v>
+      </c>
+      <c r="H125" s="2">
+        <v>4.0824002631599902E-3</v>
+      </c>
+      <c r="I125">
+        <v>4.1123600015099898E-3</v>
+      </c>
+      <c r="J125" s="2">
+        <v>1.1700000000000001E-9</v>
+      </c>
+      <c r="K125" s="2">
+        <v>5.2499999999999997E-4</v>
+      </c>
+      <c r="L125" s="2">
+        <v>7.0051999999999905E-10</v>
+      </c>
+      <c r="M125">
+        <v>4.45840261649999E-4</v>
+      </c>
+      <c r="N125" s="2">
+        <v>7.0051999999999905E-10</v>
+      </c>
+      <c r="O125">
+        <v>2.4839026163999903E-4</v>
+      </c>
+      <c r="P125">
+        <v>3.2754999998999999E-4</v>
+      </c>
+      <c r="Q125">
+        <v>3.7848100015199899E-3</v>
+      </c>
+      <c r="R125" s="3">
+        <v>0.92034987212458796</v>
+      </c>
+    </row>
+    <row r="126" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B126" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" s="2">
+        <v>4.5500000000000002E-9</v>
+      </c>
+      <c r="D126">
+        <v>4.8500000000000001E-3</v>
+      </c>
+      <c r="E126" s="4">
+        <v>2.1527999999999899E-9</v>
+      </c>
+      <c r="F126">
+        <v>3.7652999999999901E-3</v>
+      </c>
+      <c r="G126" s="2">
+        <v>2.1527999999999899E-9</v>
+      </c>
+      <c r="H126" s="2">
+        <v>8.4554000000000001E-3</v>
+      </c>
+      <c r="I126">
+        <v>9.5400999999999993E-3</v>
+      </c>
+      <c r="J126" s="2">
+        <v>4.4400000000000004E-9</v>
+      </c>
+      <c r="K126">
+        <v>6.0600000000000003E-3</v>
+      </c>
+      <c r="L126" s="2">
+        <v>2.1527999999999899E-9</v>
+      </c>
+      <c r="M126">
+        <v>3.5715999999999899E-3</v>
+      </c>
+      <c r="N126" s="2">
+        <v>2.1527999999999899E-9</v>
+      </c>
+      <c r="O126">
+        <v>3.4080999999999998E-3</v>
+      </c>
+      <c r="P126">
+        <v>5.8964999999999998E-3</v>
+      </c>
+      <c r="Q126">
+        <v>3.6435999999999899E-3</v>
+      </c>
+      <c r="R126" s="3">
+        <v>0.381924717770253</v>
+      </c>
+    </row>
+    <row r="127" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127" s="2">
+        <v>6.0099999999999997E-9</v>
+      </c>
+      <c r="D127">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E127" s="4">
+        <v>1.56446E-9</v>
+      </c>
+      <c r="F127">
+        <v>3.4717999999999902E-4</v>
+      </c>
+      <c r="G127" s="2">
+        <v>1.56446E-9</v>
+      </c>
+      <c r="H127" s="2">
+        <v>9.1896999999999899E-4</v>
+      </c>
+      <c r="I127">
+        <v>1.67179E-3</v>
+      </c>
+      <c r="J127" s="2">
+        <v>5.6999999999999998E-9</v>
+      </c>
+      <c r="K127">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L127" s="2">
+        <v>1.56446E-9</v>
+      </c>
+      <c r="M127">
+        <v>3.5296999999999998E-4</v>
+      </c>
+      <c r="N127" s="2">
+        <v>1.56446E-9</v>
+      </c>
+      <c r="O127">
+        <v>3.1824000000000002E-4</v>
+      </c>
+      <c r="P127">
+        <v>1.18527E-3</v>
+      </c>
+      <c r="Q127">
+        <v>4.8651999999999902E-4</v>
+      </c>
+      <c r="R127" s="3">
+        <v>0.29101741247405399</v>
+      </c>
+    </row>
+    <row r="128" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128" s="2">
+        <v>3.7599999999999999E-8</v>
+      </c>
+      <c r="D128">
+        <v>8.8000000000000005E-3</v>
+      </c>
+      <c r="E128" s="4">
+        <v>1.9834000000000001E-8</v>
+      </c>
+      <c r="F128">
+        <v>7.5589999999999902E-3</v>
+      </c>
+      <c r="G128" s="2">
+        <v>1.9834000000000001E-8</v>
+      </c>
+      <c r="H128" s="2">
+        <v>1.407634E-2</v>
+      </c>
+      <c r="I128">
+        <v>1.531734E-2</v>
+      </c>
+      <c r="J128" s="2">
+        <v>3.6400000000000002E-8</v>
+      </c>
+      <c r="K128">
+        <v>1.09E-2</v>
+      </c>
+      <c r="L128" s="2">
+        <v>1.9994359999999999E-8</v>
+      </c>
+      <c r="M128">
+        <v>7.4665199999999904E-3</v>
+      </c>
+      <c r="N128" s="2">
+        <v>1.9994359999999999E-8</v>
+      </c>
+      <c r="O128">
+        <v>7.1781899999999897E-3</v>
+      </c>
+      <c r="P128">
+        <v>1.06116699999999E-2</v>
+      </c>
+      <c r="Q128">
+        <v>4.7056700000000003E-3</v>
+      </c>
+      <c r="R128" s="3">
+        <v>0.307211957167497</v>
+      </c>
+    </row>
+    <row r="129" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B129" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129" s="2">
+        <v>4.5300000000000002E-8</v>
+      </c>
+      <c r="D129">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="E129" s="4">
+        <v>2.3800800000000002E-8</v>
+      </c>
+      <c r="F129">
+        <v>0.12532929999999901</v>
+      </c>
+      <c r="G129" s="2">
+        <v>2.3800800000000002E-8</v>
+      </c>
+      <c r="H129" s="2">
+        <v>0.219931299999999</v>
+      </c>
+      <c r="I129">
+        <v>0.24060200000000001</v>
+      </c>
+      <c r="J129" s="2">
+        <v>3.1200000000000001E-8</v>
+      </c>
+      <c r="K129">
+        <v>0.156</v>
+      </c>
+      <c r="L129" s="2">
+        <v>2.3800800000000002E-8</v>
+      </c>
+      <c r="M129">
+        <v>0.12119920000000001</v>
+      </c>
+      <c r="N129" s="2">
+        <v>2.3800800000000002E-8</v>
+      </c>
+      <c r="O129">
+        <v>0.11804379999999901</v>
+      </c>
+      <c r="P129">
+        <v>0.152844599999999</v>
+      </c>
+      <c r="Q129">
+        <v>8.7757399999999999E-2</v>
+      </c>
+      <c r="R129" s="3">
+        <v>0.36474094147180802</v>
+      </c>
+    </row>
+    <row r="130" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B130" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C130" s="2">
+        <v>1.2499999999999999E-8</v>
+      </c>
+      <c r="D130">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E130" s="4">
+        <v>6.4903599999999904E-9</v>
+      </c>
+      <c r="F130">
+        <v>4.4913399999999999E-2</v>
+      </c>
+      <c r="G130" s="2">
+        <v>6.4903599999999904E-9</v>
+      </c>
+      <c r="H130" s="2">
+        <v>9.6929999999999905E-2</v>
+      </c>
+      <c r="I130">
+        <v>0.10901659999999901</v>
+      </c>
+      <c r="J130" s="2">
+        <v>9.9599999999999995E-9</v>
+      </c>
+      <c r="K130">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="L130" s="2">
+        <v>6.4903599999999904E-9</v>
+      </c>
+      <c r="M130">
+        <v>4.3110000000000002E-2</v>
+      </c>
+      <c r="N130" s="2">
+        <v>6.4903599999999904E-9</v>
+      </c>
+      <c r="O130">
+        <v>4.1162199999999899E-2</v>
+      </c>
+      <c r="P130">
+        <v>5.5752199999999898E-2</v>
+      </c>
+      <c r="Q130">
+        <v>5.3264399999999899E-2</v>
+      </c>
+      <c r="R130" s="3">
+        <v>0.48858981109298899</v>
+      </c>
+    </row>
+    <row r="131" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B131" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="2">
+        <v>2.6200000000000001E-9</v>
+      </c>
+      <c r="D131">
+        <v>4.26E-4</v>
+      </c>
+      <c r="E131" s="4">
+        <v>1.1984799999999901E-9</v>
+      </c>
+      <c r="F131">
+        <v>3.2938999999999999E-4</v>
+      </c>
+      <c r="G131" s="2">
+        <v>1.1984799999999901E-9</v>
+      </c>
+      <c r="H131" s="2">
+        <v>6.9052000000000002E-4</v>
+      </c>
+      <c r="I131">
+        <v>7.8713000000000003E-4</v>
+      </c>
+      <c r="J131" s="2">
+        <v>2.5599999999999998E-9</v>
+      </c>
+      <c r="K131">
+        <v>4.4700000000000002E-4</v>
+      </c>
+      <c r="L131" s="2">
+        <v>1.1984799999999901E-9</v>
+      </c>
+      <c r="M131">
+        <v>3.1981000000000002E-4</v>
+      </c>
+      <c r="N131" s="2">
+        <v>1.1984799999999901E-9</v>
+      </c>
+      <c r="O131">
+        <v>3.0441000000000002E-4</v>
+      </c>
+      <c r="P131">
+        <v>4.31599999999999E-4</v>
+      </c>
+      <c r="Q131">
+        <v>3.5553000000000001E-4</v>
+      </c>
+      <c r="R131" s="3">
+        <v>0.45167888404710699</v>
+      </c>
+    </row>
+    <row r="132" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B132" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C132" s="2">
+        <v>2.7000000000000001E-7</v>
+      </c>
+      <c r="D132">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E132" s="4">
+        <v>4.5061159999999901E-8</v>
+      </c>
+      <c r="F132">
+        <v>1.24532899999999E-2</v>
+      </c>
+      <c r="G132" s="2">
+        <v>4.5061159999999901E-8</v>
+      </c>
+      <c r="H132" s="2">
+        <v>2.67285499999999E-2</v>
+      </c>
+      <c r="I132">
+        <v>5.7275259999999897E-2</v>
+      </c>
+      <c r="J132" s="2">
+        <v>2.6800000000000002E-7</v>
+      </c>
+      <c r="K132" s="2">
+        <v>3.7900000000000003E-2</v>
+      </c>
+      <c r="L132" s="2">
+        <v>4.5255279999999901E-8</v>
+      </c>
+      <c r="M132">
+        <v>1.233252E-2</v>
+      </c>
+      <c r="N132" s="2">
+        <v>4.5255279999999901E-8</v>
+      </c>
+      <c r="O132">
+        <v>1.162319E-2</v>
+      </c>
+      <c r="P132">
+        <v>3.7190670000000002E-2</v>
+      </c>
+      <c r="Q132">
+        <v>2.0084589999999899E-2</v>
+      </c>
+      <c r="R132" s="3">
+        <v>0.35066781015048998</v>
+      </c>
+    </row>
+    <row r="133" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B133" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2.1E-7</v>
+      </c>
+      <c r="D133">
+        <v>5.96E-2</v>
+      </c>
+      <c r="E133" s="2">
+        <v>3.9753319999999902E-8</v>
+      </c>
+      <c r="F133">
+        <v>1.4597239999999999E-2</v>
+      </c>
+      <c r="G133" s="2">
+        <v>3.9753319999999902E-8</v>
+      </c>
+      <c r="H133">
+        <v>3.8125039999999999E-2</v>
+      </c>
+      <c r="I133">
+        <v>8.3127800000000002E-2</v>
+      </c>
+      <c r="J133" s="2">
+        <v>2.0200000000000001E-7</v>
+      </c>
+      <c r="K133">
+        <v>9.2100000000000001E-2</v>
+      </c>
+      <c r="L133" s="2">
+        <v>3.9753319999999902E-8</v>
+      </c>
+      <c r="M133">
+        <v>1.9450149999999899E-2</v>
+      </c>
+      <c r="N133" s="2">
+        <v>3.9753319999999902E-8</v>
+      </c>
+      <c r="O133">
+        <v>1.571898E-2</v>
+      </c>
+      <c r="P133">
+        <v>8.8368829999999995E-2</v>
+      </c>
+      <c r="Q133">
+        <v>-5.2410299999999998E-3</v>
+      </c>
+      <c r="R133" s="3">
+        <v>-6.3047861244974607E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B134" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="2">
+        <v>2.6499999999999999E-8</v>
+      </c>
+      <c r="D134">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="E134" s="2">
+        <v>4.4731999999999899E-9</v>
+      </c>
+      <c r="F134">
+        <v>2.57493999999999E-3</v>
+      </c>
+      <c r="G134" s="2">
+        <v>4.4731999999999899E-9</v>
+      </c>
+      <c r="H134">
+        <v>6.3251499999999903E-3</v>
+      </c>
+      <c r="I134">
+        <v>8.7302100000000004E-3</v>
+      </c>
+      <c r="J134" s="2">
+        <v>2.6000000000000001E-8</v>
+      </c>
+      <c r="K134">
+        <v>5.0200000000000002E-3</v>
+      </c>
+      <c r="L134" s="2">
+        <v>4.4731999999999899E-9</v>
+      </c>
+      <c r="M134">
+        <v>2.5527099999999902E-3</v>
+      </c>
+      <c r="N134" s="2">
+        <v>4.4731999999999899E-9</v>
+      </c>
+      <c r="O134">
+        <v>2.3549500000000002E-3</v>
+      </c>
+      <c r="P134">
+        <v>4.8222400000000002E-3</v>
+      </c>
+      <c r="Q134">
+        <v>3.9079699999999898E-3</v>
+      </c>
+      <c r="R134" s="3">
+        <v>0.447637571146627</v>
+      </c>
+    </row>
+    <row r="135" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B135" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C135" s="2">
+        <v>7.4700000000000001E-8</v>
+      </c>
+      <c r="D135">
+        <v>1.37E-2</v>
+      </c>
+      <c r="E135" s="2">
+        <v>3.2096070000000001E-8</v>
+      </c>
+      <c r="F135">
+        <v>4.59984E-3</v>
+      </c>
+      <c r="G135" s="2">
+        <v>3.2096070000000001E-8</v>
+      </c>
+      <c r="H135">
+        <v>1.1879159999999901E-2</v>
+      </c>
+      <c r="I135">
+        <v>2.0979319999999899E-2</v>
+      </c>
+      <c r="J135" s="2">
+        <v>6.4799999999999998E-8</v>
+      </c>
+      <c r="K135">
+        <v>1.1299999999999999E-2</v>
+      </c>
+      <c r="L135" s="2">
+        <v>3.2096070000000001E-8</v>
+      </c>
+      <c r="M135">
+        <v>4.3479099999999904E-3</v>
+      </c>
+      <c r="N135" s="2">
+        <v>3.2096070000000001E-8</v>
+      </c>
+      <c r="O135">
+        <v>4.0664499999999897E-3</v>
+      </c>
+      <c r="P135">
+        <v>1.101854E-2</v>
+      </c>
+      <c r="Q135">
+        <v>9.9607799999999903E-3</v>
+      </c>
+      <c r="R135" s="3">
+        <v>0.47479041265398397</v>
+      </c>
+    </row>
+    <row r="136" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C136" s="2">
+        <v>4.2400000000000002E-8</v>
+      </c>
+      <c r="D136">
+        <v>8.0499999999999999E-3</v>
+      </c>
+      <c r="E136" s="2">
+        <v>1.360528E-8</v>
+      </c>
+      <c r="F136">
+        <v>3.6996799999999999E-3</v>
+      </c>
+      <c r="G136" s="2">
+        <v>1.360528E-8</v>
+      </c>
+      <c r="H136">
+        <v>1.2382439999999899E-2</v>
+      </c>
+      <c r="I136">
+        <v>1.6732759999999899E-2</v>
+      </c>
+      <c r="J136" s="2">
+        <v>4.14E-8</v>
+      </c>
+      <c r="K136">
+        <v>6.1599999999999997E-3</v>
+      </c>
+      <c r="L136" s="2">
+        <v>1.366436E-8</v>
+      </c>
+      <c r="M136">
+        <v>3.41187E-3</v>
+      </c>
+      <c r="N136" s="2">
+        <v>1.366436E-8</v>
+      </c>
+      <c r="O136">
+        <v>3.0788499999999902E-3</v>
+      </c>
+      <c r="P136">
+        <v>5.8269799999999903E-3</v>
+      </c>
+      <c r="Q136">
+        <v>1.09057799999999E-2</v>
+      </c>
+      <c r="R136" s="3">
+        <v>0.65176217193098995</v>
+      </c>
+    </row>
+    <row r="137" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="2">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="D137">
+        <v>1.0200000000000001E-3</v>
+      </c>
+      <c r="E137" s="2">
+        <v>6.5663199999999902E-9</v>
+      </c>
+      <c r="F137">
+        <v>7.3601799999999898E-4</v>
+      </c>
+      <c r="G137" s="2">
+        <v>6.5663199999999902E-9</v>
+      </c>
+      <c r="H137">
+        <v>1.6581440000000001E-3</v>
+      </c>
+      <c r="I137">
+        <v>1.942126E-3</v>
+      </c>
+      <c r="J137" s="2">
+        <v>2.8600000000000001E-8</v>
+      </c>
+      <c r="K137">
+        <v>1.2199999999999999E-3</v>
+      </c>
+      <c r="L137" s="2">
+        <v>6.5831999999999903E-9</v>
+      </c>
+      <c r="M137">
+        <v>7.5147400000000002E-4</v>
+      </c>
+      <c r="N137" s="2">
+        <v>6.5831999999999903E-9</v>
+      </c>
+      <c r="O137">
+        <v>6.9336099999999998E-4</v>
+      </c>
+      <c r="P137">
+        <v>1.1618869999999999E-3</v>
+      </c>
+      <c r="Q137">
+        <v>7.8023899999999995E-4</v>
+      </c>
+      <c r="R137" s="3">
+        <v>0.40174478895807902</v>
+      </c>
+    </row>
+    <row r="138" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="2">
+        <v>1.7599999999999999E-8</v>
+      </c>
+      <c r="D138">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="E138" s="2">
+        <v>8.6425600000000004E-9</v>
+      </c>
+      <c r="F138">
+        <v>9.0521799999999898E-4</v>
+      </c>
+      <c r="G138" s="2">
+        <v>8.6425600000000004E-9</v>
+      </c>
+      <c r="H138">
+        <v>1.54677E-3</v>
+      </c>
+      <c r="I138">
+        <v>1.681552E-3</v>
+      </c>
+      <c r="J138" s="2">
+        <v>1.7599999999999999E-8</v>
+      </c>
+      <c r="K138">
+        <v>1.0399999999999999E-3</v>
+      </c>
+      <c r="L138" s="2">
+        <v>8.6425600000000004E-9</v>
+      </c>
+      <c r="M138">
+        <v>9.0521799999999898E-4</v>
+      </c>
+      <c r="N138" s="2">
+        <v>8.6425600000000004E-9</v>
+      </c>
+      <c r="O138">
+        <v>8.6970599999999895E-4</v>
+      </c>
+      <c r="P138">
+        <v>1.00448799999999E-3</v>
+      </c>
+      <c r="Q138">
+        <v>6.7706400000000001E-4</v>
+      </c>
+      <c r="R138" s="3">
+        <v>0.40264232090354601</v>
+      </c>
+    </row>
+    <row r="139" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E140" s="1"/>
       <c r="H140" s="2"/>
       <c r="L140" s="2"/>
       <c r="O140" s="3"/>
-    </row>
-    <row r="141" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="R140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E141" s="1"/>
       <c r="H141" s="2"/>
       <c r="L141" s="2"/>
       <c r="O141" s="3"/>
-    </row>
-    <row r="142" spans="5:15" x14ac:dyDescent="0.2">
+      <c r="R141" s="3">
+        <f>AVERAGE(R119:R138)</f>
+        <v>0.43888340089342026</v>
+      </c>
+    </row>
+    <row r="142" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E142" s="1"/>
       <c r="H142" s="2"/>
       <c r="L142" s="2"/>
       <c r="O142" s="3"/>
     </row>
-    <row r="143" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E143" s="1"/>
       <c r="H143" s="2"/>
       <c r="L143" s="2"/>
       <c r="O143" s="3"/>
     </row>
-    <row r="144" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E144" s="1"/>
       <c r="H144" s="2"/>
       <c r="L144" s="2"/>

--- a/dynamic_power_analysis/code/OpenSTA_report_power/stats_final.xlsx
+++ b/dynamic_power_analysis/code/OpenSTA_report_power/stats_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youssef/Desktop/EDA/Dynamic_Power_Clock_Gating/dynamic_power_analysis/code/OpenSTA_report_power/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB81304C-F58E-6543-A4EA-9C9DC918DCED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B7BCB1-0B73-0644-9BBE-8573D911A44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{890AF795-D98C-7D47-A48F-86EB7D607F33}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="67">
   <si>
     <t>module</t>
   </si>
@@ -241,9 +241,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +256,52 @@
       <color rgb="FF24292E"/>
       <name val="Menlo"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF24292E"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="16"/>
+      <color rgb="FF24292E"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF24292E"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -278,14 +324,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E9F32-DA16-8340-AAF9-07CE3C189777}">
-  <dimension ref="B2:R159"/>
+  <dimension ref="B2:R173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I83" zoomScale="75" workbookViewId="0">
-      <selection activeCell="T104" sqref="T104"/>
+    <sheetView tabSelected="1" topLeftCell="A134" zoomScale="61" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5597,98 +5651,790 @@
       <c r="L144" s="2"/>
       <c r="O144" s="3"/>
     </row>
-    <row r="145" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E145" s="1"/>
       <c r="H145" s="2"/>
       <c r="L145" s="2"/>
       <c r="O145" s="3"/>
     </row>
-    <row r="146" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E146" s="1"/>
       <c r="H146" s="2"/>
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="O146" s="3"/>
     </row>
-    <row r="147" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E147" s="1"/>
       <c r="H147" s="2"/>
       <c r="L147" s="2"/>
       <c r="O147" s="3"/>
     </row>
-    <row r="148" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E148" s="1"/>
       <c r="H148" s="2"/>
       <c r="L148" s="2"/>
       <c r="O148" s="3"/>
     </row>
-    <row r="149" spans="5:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:15" x14ac:dyDescent="0.2">
       <c r="E149" s="1"/>
       <c r="H149" s="2"/>
       <c r="L149" s="2"/>
       <c r="O149" s="3"/>
     </row>
-    <row r="150" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E150" s="1"/>
-      <c r="H150" s="2"/>
-      <c r="L150" s="2"/>
+    <row r="150" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="B150" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G150" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I150" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J150" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="K150" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L150" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="O150" s="3"/>
     </row>
-    <row r="151" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E151" s="1"/>
-      <c r="H151" s="2"/>
-      <c r="L151" s="2"/>
+    <row r="151" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B151" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" s="12">
+        <v>1.8662150000000001E-3</v>
+      </c>
+      <c r="D151" s="12">
+        <v>4.7434984E-4</v>
+      </c>
+      <c r="E151" s="13">
+        <v>4.4899999999999998E-8</v>
+      </c>
+      <c r="F151" s="12">
+        <v>2.34347299999999E-3</v>
+      </c>
+      <c r="G151" s="12">
+        <v>1.38321699999999E-3</v>
+      </c>
+      <c r="H151" s="12">
+        <v>3.1997425999999901E-4</v>
+      </c>
+      <c r="I151" s="12">
+        <v>4.5900000000000001E-8</v>
+      </c>
+      <c r="J151" s="12">
+        <v>1.7080590000000001E-3</v>
+      </c>
+      <c r="K151" s="12">
+        <v>6.3541399999999897E-4</v>
+      </c>
+      <c r="L151" s="14">
+        <v>0.27114201870471699</v>
+      </c>
       <c r="O151" s="3"/>
     </row>
-    <row r="152" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E152" s="1"/>
-      <c r="H152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
+    <row r="152" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B152" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" s="12">
+        <v>5.40172999999999E-3</v>
+      </c>
+      <c r="D152" s="12">
+        <v>1.4885040000000001E-3</v>
+      </c>
+      <c r="E152" s="13">
+        <v>4.3499999999999999E-8</v>
+      </c>
+      <c r="F152" s="12">
+        <v>6.8951399999999897E-3</v>
+      </c>
+      <c r="G152" s="12">
+        <v>3.7778500000000001E-3</v>
+      </c>
+      <c r="H152" s="12">
+        <v>6.4201546000000002E-4</v>
+      </c>
+      <c r="I152" s="12">
+        <v>4.2599999999999998E-8</v>
+      </c>
+      <c r="J152" s="12">
+        <v>4.4311699999999904E-3</v>
+      </c>
+      <c r="K152" s="12">
+        <v>2.4639699999999898E-3</v>
+      </c>
+      <c r="L152" s="14">
+        <v>0.35734879929921598</v>
+      </c>
       <c r="O152" s="3"/>
     </row>
-    <row r="153" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E153" s="1"/>
-      <c r="H153" s="2"/>
-      <c r="L153" s="2"/>
+    <row r="153" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B153" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" s="12">
+        <v>2.1408009999999899E-3</v>
+      </c>
+      <c r="D153" s="12">
+        <v>1.9811562E-3</v>
+      </c>
+      <c r="E153" s="13">
+        <v>1.23E-7</v>
+      </c>
+      <c r="F153" s="12">
+        <v>4.1244749999999998E-3</v>
+      </c>
+      <c r="G153" s="12">
+        <v>3.5742739999999901E-3</v>
+      </c>
+      <c r="H153" s="12">
+        <v>7.1965229999999998E-4</v>
+      </c>
+      <c r="I153" s="12">
+        <v>1.3300000000000001E-7</v>
+      </c>
+      <c r="J153" s="12">
+        <v>4.2950149999999897E-3</v>
+      </c>
+      <c r="K153" s="12">
+        <v>-1.70539999999999E-4</v>
+      </c>
+      <c r="L153" s="14">
+        <v>-4.1348292813024601E-2</v>
+      </c>
       <c r="O153" s="3"/>
     </row>
-    <row r="154" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E154" s="1"/>
-      <c r="H154" s="2"/>
-      <c r="L154" s="2"/>
+    <row r="154" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B154" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" s="12">
+        <v>9.1401669999999907E-3</v>
+      </c>
+      <c r="D154" s="12">
+        <v>9.9558645999999994E-3</v>
+      </c>
+      <c r="E154" s="13">
+        <v>7.4600000000000006E-8</v>
+      </c>
+      <c r="F154" s="12">
+        <v>1.8847429999999998E-2</v>
+      </c>
+      <c r="G154" s="12">
+        <v>7.4500349999999903E-3</v>
+      </c>
+      <c r="H154" s="12">
+        <v>2.14066280999999E-3</v>
+      </c>
+      <c r="I154" s="12">
+        <v>6.9100000000000003E-8</v>
+      </c>
+      <c r="J154" s="12">
+        <v>9.6023700000000007E-3</v>
+      </c>
+      <c r="K154" s="12">
+        <v>9.2450599999999994E-3</v>
+      </c>
+      <c r="L154" s="14">
+        <v>0.49052098880324702</v>
+      </c>
       <c r="O154" s="3"/>
     </row>
-    <row r="155" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E155" s="1"/>
-      <c r="H155" s="2"/>
-      <c r="L155" s="2"/>
+    <row r="155" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B155" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" s="12">
+        <v>4.8821899999999903E-3</v>
+      </c>
+      <c r="D155" s="12">
+        <v>2.7620653999999899E-3</v>
+      </c>
+      <c r="E155" s="13">
+        <v>1.18E-8</v>
+      </c>
+      <c r="F155" s="12">
+        <v>7.6507900000000002E-3</v>
+      </c>
+      <c r="G155" s="12">
+        <v>3.7682700000000002E-3</v>
+      </c>
+      <c r="H155" s="12">
+        <v>1.2050564999999899E-3</v>
+      </c>
+      <c r="I155" s="12">
+        <v>1.11E-8</v>
+      </c>
+      <c r="J155" s="12">
+        <v>4.9737699999999998E-3</v>
+      </c>
+      <c r="K155" s="12">
+        <v>2.67701999999999E-3</v>
+      </c>
+      <c r="L155" s="14">
+        <v>0.34990112132211099</v>
+      </c>
       <c r="O155" s="3"/>
     </row>
-    <row r="156" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E156" s="1"/>
-      <c r="H156" s="2"/>
-      <c r="L156" s="2"/>
+    <row r="156" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B156" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" s="12">
+        <v>5.3876999999999897E-2</v>
+      </c>
+      <c r="D156" s="12">
+        <v>9.27214899999999E-3</v>
+      </c>
+      <c r="E156" s="13">
+        <v>4.3800000000000002E-8</v>
+      </c>
+      <c r="F156" s="12">
+        <v>6.3284000000000007E-2</v>
+      </c>
+      <c r="G156" s="12">
+        <v>3.7766499999999897E-2</v>
+      </c>
+      <c r="H156" s="12">
+        <v>2.57234819999999E-3</v>
+      </c>
+      <c r="I156" s="12">
+        <v>4.2799999999999999E-8</v>
+      </c>
+      <c r="J156" s="12">
+        <v>4.0604300000000003E-2</v>
+      </c>
+      <c r="K156" s="12">
+        <v>2.26796999999999E-2</v>
+      </c>
+      <c r="L156" s="14">
+        <v>0.35837968522849301</v>
+      </c>
       <c r="O156" s="3"/>
     </row>
-    <row r="157" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E157" s="1"/>
-      <c r="H157" s="2"/>
-      <c r="L157" s="2"/>
+    <row r="157" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B157" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" s="12">
+        <v>2.7389800011599101E-3</v>
+      </c>
+      <c r="D157" s="12">
+        <v>1.3488770001592501E-3</v>
+      </c>
+      <c r="E157" s="13">
+        <v>1.1599999999999999E-9</v>
+      </c>
+      <c r="F157" s="12">
+        <v>4.0887500013699904E-3</v>
+      </c>
+      <c r="G157" s="12">
+        <v>2.3866999993559001E-4</v>
+      </c>
+      <c r="H157" s="12">
+        <v>8.7817999991159001E-5</v>
+      </c>
+      <c r="I157" s="12">
+        <v>1.1700000000000001E-9</v>
+      </c>
+      <c r="J157" s="12">
+        <v>3.2656999999000001E-4</v>
+      </c>
+      <c r="K157" s="12">
+        <v>3.7621800013799898E-3</v>
+      </c>
+      <c r="L157" s="14">
+        <v>0.92012962399741305</v>
+      </c>
       <c r="O157" s="3"/>
     </row>
-    <row r="158" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E158" s="1"/>
-      <c r="H158" s="2"/>
-      <c r="L158" s="2"/>
+    <row r="158" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B158" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" s="12">
+        <v>5.26399999999999E-3</v>
+      </c>
+      <c r="D158" s="12">
+        <v>1.61231E-3</v>
+      </c>
+      <c r="E158" s="13">
+        <v>4.5500000000000002E-9</v>
+      </c>
+      <c r="F158" s="12">
+        <v>6.8758999999999904E-3</v>
+      </c>
+      <c r="G158" s="12">
+        <v>5.2331999999999899E-3</v>
+      </c>
+      <c r="H158" s="12">
+        <v>7.2070279999999901E-4</v>
+      </c>
+      <c r="I158" s="12">
+        <v>4.4400000000000004E-9</v>
+      </c>
+      <c r="J158" s="12">
+        <v>5.9417999999999997E-3</v>
+      </c>
+      <c r="K158" s="12">
+        <v>9.3409999999999902E-4</v>
+      </c>
+      <c r="L158" s="14">
+        <v>0.13585130673802701</v>
+      </c>
       <c r="O158" s="3"/>
     </row>
-    <row r="159" spans="5:15" x14ac:dyDescent="0.2">
-      <c r="E159" s="1"/>
-      <c r="H159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
+    <row r="159" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B159" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" s="12">
+        <v>4.4035999999999999E-4</v>
+      </c>
+      <c r="D159" s="12">
+        <v>2.01293999999999E-4</v>
+      </c>
+      <c r="E159" s="13">
+        <v>6.0099999999999997E-9</v>
+      </c>
+      <c r="F159" s="12">
+        <v>6.4230999999999999E-4</v>
+      </c>
+      <c r="G159" s="12">
+        <v>3.68049999999999E-4</v>
+      </c>
+      <c r="H159" s="12">
+        <v>9.6373880000000001E-5</v>
+      </c>
+      <c r="I159" s="12">
+        <v>5.6999999999999998E-9</v>
+      </c>
+      <c r="J159" s="12">
+        <v>4.6433999999999901E-4</v>
+      </c>
+      <c r="K159" s="12">
+        <v>1.7797000000000001E-4</v>
+      </c>
+      <c r="L159" s="14">
+        <v>0.27707804642618</v>
+      </c>
       <c r="O159" s="3"/>
+    </row>
+    <row r="160" spans="2:15" ht="24" x14ac:dyDescent="0.3">
+      <c r="B160" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" s="12">
+        <v>1.1401110000000001E-2</v>
+      </c>
+      <c r="D160" s="12">
+        <v>2.2069541999999902E-3</v>
+      </c>
+      <c r="E160" s="12">
+        <v>3.7599999999999999E-8</v>
+      </c>
+      <c r="F160" s="12">
+        <v>1.36105599999999E-2</v>
+      </c>
+      <c r="G160" s="12">
+        <v>9.3266700000000004E-3</v>
+      </c>
+      <c r="H160" s="12">
+        <v>1.2374297299999901E-3</v>
+      </c>
+      <c r="I160" s="12">
+        <v>3.6400000000000002E-8</v>
+      </c>
+      <c r="J160" s="12">
+        <v>1.056435E-2</v>
+      </c>
+      <c r="K160" s="12">
+        <v>3.0462099999999902E-3</v>
+      </c>
+      <c r="L160" s="14">
+        <v>0.223812245785625</v>
+      </c>
+    </row>
+    <row r="161" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B161" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" s="12">
+        <v>0.19211139999999899</v>
+      </c>
+      <c r="D161" s="12">
+        <v>3.5425527999999998E-2</v>
+      </c>
+      <c r="E161" s="12">
+        <v>4.5300000000000002E-8</v>
+      </c>
+      <c r="F161" s="12">
+        <v>0.22724820000000001</v>
+      </c>
+      <c r="G161" s="12">
+        <v>0.13510949999999999</v>
+      </c>
+      <c r="H161" s="12">
+        <v>1.7906894E-2</v>
+      </c>
+      <c r="I161" s="12">
+        <v>3.1200000000000001E-8</v>
+      </c>
+      <c r="J161" s="12">
+        <v>0.15265970000000001</v>
+      </c>
+      <c r="K161" s="12">
+        <v>7.4588500000000002E-2</v>
+      </c>
+      <c r="L161" s="14">
+        <v>0.32822482202279202</v>
+      </c>
+    </row>
+    <row r="162" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B162" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" s="12">
+        <v>6.6436200000000001E-2</v>
+      </c>
+      <c r="D162" s="12">
+        <v>1.4949347999999901E-2</v>
+      </c>
+      <c r="E162" s="12">
+        <v>1.2499999999999999E-8</v>
+      </c>
+      <c r="F162" s="12">
+        <v>8.1432199999999899E-2</v>
+      </c>
+      <c r="G162" s="12">
+        <v>4.7627299999999997E-2</v>
+      </c>
+      <c r="H162" s="12">
+        <v>6.4977719999999997E-3</v>
+      </c>
+      <c r="I162" s="12">
+        <v>9.9599999999999995E-9</v>
+      </c>
+      <c r="J162" s="12">
+        <v>5.41813999999999E-2</v>
+      </c>
+      <c r="K162" s="12">
+        <v>2.7250799999999999E-2</v>
+      </c>
+      <c r="L162" s="14">
+        <v>0.33464403516053798</v>
+      </c>
+    </row>
+    <row r="163" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B163" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C163" s="12">
+        <v>4.7689999999999999E-4</v>
+      </c>
+      <c r="D163" s="12">
+        <v>1.6333309999999899E-4</v>
+      </c>
+      <c r="E163" s="12">
+        <v>2.6200000000000001E-9</v>
+      </c>
+      <c r="F163" s="12">
+        <v>6.4137000000000005E-4</v>
+      </c>
+      <c r="G163" s="12">
+        <v>3.5157999999999999E-4</v>
+      </c>
+      <c r="H163" s="12">
+        <v>6.1689500000000006E-5</v>
+      </c>
+      <c r="I163" s="12">
+        <v>2.5599999999999998E-9</v>
+      </c>
+      <c r="J163" s="12">
+        <v>4.13789999999999E-4</v>
+      </c>
+      <c r="K163" s="12">
+        <v>2.2758000000000001E-4</v>
+      </c>
+      <c r="L163" s="14">
+        <v>0.354834183076851</v>
+      </c>
+    </row>
+    <row r="164" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B164" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C164" s="12">
+        <v>2.2187729999999999E-2</v>
+      </c>
+      <c r="D164" s="12">
+        <v>1.15145093E-2</v>
+      </c>
+      <c r="E164" s="12">
+        <v>2.7000000000000001E-7</v>
+      </c>
+      <c r="F164" s="12">
+        <v>3.3759819999999899E-2</v>
+      </c>
+      <c r="G164" s="12">
+        <v>1.6291969999999999E-2</v>
+      </c>
+      <c r="H164" s="12">
+        <v>6.1547021399999896E-3</v>
+      </c>
+      <c r="I164" s="12">
+        <v>2.6800000000000002E-7</v>
+      </c>
+      <c r="J164" s="12">
+        <v>2.2506000000000002E-2</v>
+      </c>
+      <c r="K164" s="12">
+        <v>1.1253819999999901E-2</v>
+      </c>
+      <c r="L164" s="14">
+        <v>0.33334952615268598</v>
+      </c>
+    </row>
+    <row r="165" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B165" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165" s="12">
+        <v>2.31912629999999E-2</v>
+      </c>
+      <c r="D165" s="12">
+        <v>1.2056648099999999E-2</v>
+      </c>
+      <c r="E165" s="12">
+        <v>2.1E-7</v>
+      </c>
+      <c r="F165" s="12">
+        <v>3.44922199999999E-2</v>
+      </c>
+      <c r="G165" s="12">
+        <v>1.8463341000000001E-2</v>
+      </c>
+      <c r="H165" s="12">
+        <v>5.2552749299999901E-3</v>
+      </c>
+      <c r="I165" s="12">
+        <v>2.01999999999999E-7</v>
+      </c>
+      <c r="J165" s="12">
+        <v>2.3710749999999999E-2</v>
+      </c>
+      <c r="K165" s="12">
+        <v>1.0781469999999901E-2</v>
+      </c>
+      <c r="L165" s="14">
+        <v>0.31257686515973698</v>
+      </c>
+    </row>
+    <row r="166" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B166" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" s="12">
+        <v>4.3112299999999897E-3</v>
+      </c>
+      <c r="D166" s="12">
+        <v>3.4159555999999998E-3</v>
+      </c>
+      <c r="E166" s="12">
+        <v>2.6499999999999999E-8</v>
+      </c>
+      <c r="F166" s="12">
+        <v>7.7374899999999996E-3</v>
+      </c>
+      <c r="G166" s="12">
+        <v>3.2217399999999899E-3</v>
+      </c>
+      <c r="H166" s="12">
+        <v>1.4330032999999901E-3</v>
+      </c>
+      <c r="I166" s="12">
+        <v>2.6000000000000001E-8</v>
+      </c>
+      <c r="J166" s="12">
+        <v>4.6542399999999901E-3</v>
+      </c>
+      <c r="K166" s="12">
+        <v>3.0832500000000001E-3</v>
+      </c>
+      <c r="L166" s="14">
+        <v>0.39848193664870601</v>
+      </c>
+    </row>
+    <row r="167" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B167" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C167" s="12">
+        <v>5.947941E-3</v>
+      </c>
+      <c r="D167" s="12">
+        <v>1.7640519000000001E-3</v>
+      </c>
+      <c r="E167" s="12">
+        <v>7.4700000000000001E-8</v>
+      </c>
+      <c r="F167" s="12">
+        <v>7.6849700000000002E-3</v>
+      </c>
+      <c r="G167" s="12">
+        <v>4.4376999999999897E-3</v>
+      </c>
+      <c r="H167" s="12">
+        <v>8.8304374999999995E-4</v>
+      </c>
+      <c r="I167" s="12">
+        <v>6.4799999999999998E-8</v>
+      </c>
+      <c r="J167" s="12">
+        <v>5.3225900000000003E-3</v>
+      </c>
+      <c r="K167" s="12">
+        <v>2.3623799999999899E-3</v>
+      </c>
+      <c r="L167" s="14">
+        <v>0.30740263137006302</v>
+      </c>
+    </row>
+    <row r="168" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B168" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" s="12">
+        <v>4.6281599999999897E-3</v>
+      </c>
+      <c r="D168" s="12">
+        <v>1.7988010999999901E-3</v>
+      </c>
+      <c r="E168" s="12">
+        <v>4.2400000000000002E-8</v>
+      </c>
+      <c r="F168" s="12">
+        <v>6.4256599999999902E-3</v>
+      </c>
+      <c r="G168" s="12">
+        <v>3.45058E-3</v>
+      </c>
+      <c r="H168" s="12">
+        <v>6.4158473999999905E-4</v>
+      </c>
+      <c r="I168" s="12">
+        <v>4.14E-8</v>
+      </c>
+      <c r="J168" s="12">
+        <v>4.1046399999999997E-3</v>
+      </c>
+      <c r="K168" s="12">
+        <v>2.3210199999999901E-3</v>
+      </c>
+      <c r="L168" s="14">
+        <v>0.36121114406924698</v>
+      </c>
+    </row>
+    <row r="169" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B169" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C169" s="12">
+        <v>1.17472499999999E-3</v>
+      </c>
+      <c r="D169" s="12">
+        <v>5.9627244999999897E-4</v>
+      </c>
+      <c r="E169" s="12">
+        <v>2.9999999999999997E-8</v>
+      </c>
+      <c r="F169" s="12">
+        <v>1.7744519999999999E-3</v>
+      </c>
+      <c r="G169" s="12">
+        <v>9.0013899999999902E-4</v>
+      </c>
+      <c r="H169" s="12">
+        <v>2.01560389999999E-4</v>
+      </c>
+      <c r="I169" s="12">
+        <v>2.8600000000000001E-8</v>
+      </c>
+      <c r="J169" s="12">
+        <v>1.099685E-3</v>
+      </c>
+      <c r="K169" s="12">
+        <v>6.7476700000000005E-4</v>
+      </c>
+      <c r="L169" s="14">
+        <v>0.38026782353087002</v>
+      </c>
+    </row>
+    <row r="170" spans="2:12" ht="24" x14ac:dyDescent="0.3">
+      <c r="B170" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C170" s="12">
+        <v>1.368488E-3</v>
+      </c>
+      <c r="D170" s="12">
+        <v>1.9793729999999999E-4</v>
+      </c>
+      <c r="E170" s="12">
+        <v>1.7599999999999999E-8</v>
+      </c>
+      <c r="F170" s="12">
+        <v>1.56790799999999E-3</v>
+      </c>
+      <c r="G170" s="12">
+        <v>9.4447200000000002E-4</v>
+      </c>
+      <c r="H170" s="12">
+        <v>2.35183999999999E-5</v>
+      </c>
+      <c r="I170" s="12">
+        <v>1.7599999999999999E-8</v>
+      </c>
+      <c r="J170" s="12">
+        <v>9.6742900000000001E-4</v>
+      </c>
+      <c r="K170" s="12">
+        <v>6.0047899999999903E-4</v>
+      </c>
+      <c r="L170" s="14">
+        <v>0.38298101674332902</v>
+      </c>
+    </row>
+    <row r="171" spans="2:12" ht="21" x14ac:dyDescent="0.25">
+      <c r="B171" s="9"/>
+    </row>
+    <row r="173" spans="2:12" ht="26" x14ac:dyDescent="0.3">
+      <c r="L173" s="7">
+        <f>AVERAGE(L151,L152,L154:L170)</f>
+        <v>0.36200725369683412</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
